--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F47A0-69BF-4A40-9073-22686BC5866D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5CE396-F550-481C-A05E-878D63DB48BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="145">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Books needed</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -527,7 +530,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,6 +561,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BCEB27D-6E9F-4ECF-8BC4-D967EF319771}" name="skills" displayName="skills" ref="A1:D129" totalsRowShown="0">
   <autoFilter ref="A1:D129" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Man-At-Arms"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
@@ -567,12 +575,15 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:D129">
+    <sortCondition ref="B1:B129"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{C942E722-BCB0-4010-8BDE-D8A787CFEDA6}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{42500586-031D-4E03-B4EC-9F8BE73BAC6E}" name="Type"/>
     <tableColumn id="1" xr3:uid="{8E8DC957-0548-4003-84F9-94F2E441B481}" name="Level"/>
-    <tableColumn id="7" xr3:uid="{80D4239F-F177-4074-A4F4-D19D0A839103}" name="Books needed" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA((VLOOKUP(A2,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,jehan[],1,FALSE))),0,1)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{80D4239F-F177-4074-A4F4-D19D0A839103}" name="Books needed" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(A2,danger[],1,FALSE)),0,IF(VLOOKUP(A2,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,brenda[],1,FALSE)),0,IF(VLOOKUP(A2,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,madora[],1,FALSE)),0,IF(VLOOKUP(A2,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,jehan[],1,FALSE)),0,IF(VLOOKUP(A2,jehan[],4,FALSE)="",1,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -581,7 +592,19 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
-  <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}"/>
+  <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Novice"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
+    <sortCondition ref="C1:C47"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{E83FD4F5-EF8B-45F4-B51C-8A650BAD7CC7}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{46F78C11-4F89-4E41-9166-CD2936F8FAF7}" name="Type"/>
@@ -594,12 +617,21 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
-  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}"/>
+  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Novice"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
     <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,7 +639,17 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}"/>
+  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
+        <filter val="Novice"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
@@ -620,7 +662,16 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
-  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}"/>
+  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Novice"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
@@ -931,16 +982,16 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.9296875" customWidth="1"/>
-    <col min="6" max="7" width="22.59765625" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -954,7 +1005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -965,11 +1016,11 @@
         <v>136</v>
       </c>
       <c r="D2">
-        <f>IF(ISNA((VLOOKUP(A2,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A2,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A2,danger[],1,FALSE)),0,IF(VLOOKUP(A2,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,brenda[],1,FALSE)),0,IF(VLOOKUP(A2,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,madora[],1,FALSE)),0,IF(VLOOKUP(A2,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,jehan[],1,FALSE)),0,IF(VLOOKUP(A2,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -980,11 +1031,11 @@
         <v>136</v>
       </c>
       <c r="D3">
-        <f>IF(ISNA((VLOOKUP(A3,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A3,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A3,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A3,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A3,danger[],1,FALSE)),0,IF(VLOOKUP(A3,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A3,brenda[],1,FALSE)),0,IF(VLOOKUP(A3,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A3,madora[],1,FALSE)),0,IF(VLOOKUP(A3,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A3,jehan[],1,FALSE)),0,IF(VLOOKUP(A3,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -995,26 +1046,26 @@
         <v>136</v>
       </c>
       <c r="D4">
-        <f>IF(ISNA((VLOOKUP(A4,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A4,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A4,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A4,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A4,danger[],1,FALSE)),0,IF(VLOOKUP(A4,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A4,brenda[],1,FALSE)),0,IF(VLOOKUP(A4,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A4,madora[],1,FALSE)),0,IF(VLOOKUP(A4,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A4,jehan[],1,FALSE)),0,IF(VLOOKUP(A4,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5">
-        <f>IF(ISNA((VLOOKUP(A5,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A5,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A5,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A5,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A5,danger[],1,FALSE)),0,IF(VLOOKUP(A5,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,brenda[],1,FALSE)),0,IF(VLOOKUP(A5,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,madora[],1,FALSE)),0,IF(VLOOKUP(A5,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,jehan[],1,FALSE)),0,IF(VLOOKUP(A5,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1025,11 +1076,11 @@
         <v>136</v>
       </c>
       <c r="D6">
-        <f>IF(ISNA((VLOOKUP(A6,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A6,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A6,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A6,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A6,danger[],1,FALSE)),0,IF(VLOOKUP(A6,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A6,brenda[],1,FALSE)),0,IF(VLOOKUP(A6,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A6,madora[],1,FALSE)),0,IF(VLOOKUP(A6,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A6,jehan[],1,FALSE)),0,IF(VLOOKUP(A6,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1040,11 +1091,11 @@
         <v>136</v>
       </c>
       <c r="D7">
-        <f>IF(ISNA((VLOOKUP(A7,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A7,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A7,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A7,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A7,danger[],1,FALSE)),0,IF(VLOOKUP(A7,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A7,brenda[],1,FALSE)),0,IF(VLOOKUP(A7,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A7,madora[],1,FALSE)),0,IF(VLOOKUP(A7,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A7,jehan[],1,FALSE)),0,IF(VLOOKUP(A7,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1055,11 +1106,11 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <f>IF(ISNA((VLOOKUP(A8,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A8,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A8,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A8,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A8,danger[],1,FALSE)),0,IF(VLOOKUP(A8,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A8,brenda[],1,FALSE)),0,IF(VLOOKUP(A8,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A8,madora[],1,FALSE)),0,IF(VLOOKUP(A8,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A8,jehan[],1,FALSE)),0,IF(VLOOKUP(A8,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1070,11 +1121,11 @@
         <v>136</v>
       </c>
       <c r="D9">
-        <f>IF(ISNA((VLOOKUP(A9,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A9,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A9,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A9,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A9,danger[],1,FALSE)),0,IF(VLOOKUP(A9,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A9,brenda[],1,FALSE)),0,IF(VLOOKUP(A9,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A9,madora[],1,FALSE)),0,IF(VLOOKUP(A9,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A9,jehan[],1,FALSE)),0,IF(VLOOKUP(A9,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1085,11 +1136,11 @@
         <v>136</v>
       </c>
       <c r="D10">
-        <f>IF(ISNA((VLOOKUP(A10,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A10,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A10,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A10,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A10,danger[],1,FALSE)),0,IF(VLOOKUP(A10,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A10,brenda[],1,FALSE)),0,IF(VLOOKUP(A10,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A10,madora[],1,FALSE)),0,IF(VLOOKUP(A10,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A10,jehan[],1,FALSE)),0,IF(VLOOKUP(A10,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1100,11 +1151,11 @@
         <v>136</v>
       </c>
       <c r="D11">
-        <f>IF(ISNA((VLOOKUP(A11,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A11,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A11,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A11,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A11,danger[],1,FALSE)),0,IF(VLOOKUP(A11,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A11,brenda[],1,FALSE)),0,IF(VLOOKUP(A11,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A11,madora[],1,FALSE)),0,IF(VLOOKUP(A11,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A11,jehan[],1,FALSE)),0,IF(VLOOKUP(A11,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1115,26 +1166,26 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <f>IF(ISNA((VLOOKUP(A12,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A12,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A12,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A12,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A12,danger[],1,FALSE)),0,IF(VLOOKUP(A12,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A12,brenda[],1,FALSE)),0,IF(VLOOKUP(A12,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A12,madora[],1,FALSE)),0,IF(VLOOKUP(A12,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A12,jehan[],1,FALSE)),0,IF(VLOOKUP(A12,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13">
-        <f>IF(ISNA((VLOOKUP(A13,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A13,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A13,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A13,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A13,danger[],1,FALSE)),0,IF(VLOOKUP(A13,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,brenda[],1,FALSE)),0,IF(VLOOKUP(A13,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,madora[],1,FALSE)),0,IF(VLOOKUP(A13,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,jehan[],1,FALSE)),0,IF(VLOOKUP(A13,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1145,11 +1196,11 @@
         <v>136</v>
       </c>
       <c r="D14">
-        <f>IF(ISNA((VLOOKUP(A14,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A14,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A14,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A14,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A14,danger[],1,FALSE)),0,IF(VLOOKUP(A14,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A14,brenda[],1,FALSE)),0,IF(VLOOKUP(A14,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A14,madora[],1,FALSE)),0,IF(VLOOKUP(A14,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A14,jehan[],1,FALSE)),0,IF(VLOOKUP(A14,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -1160,11 +1211,11 @@
         <v>136</v>
       </c>
       <c r="D15">
-        <f>IF(ISNA((VLOOKUP(A15,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A15,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A15,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A15,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A15,danger[],1,FALSE)),0,IF(VLOOKUP(A15,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A15,brenda[],1,FALSE)),0,IF(VLOOKUP(A15,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A15,madora[],1,FALSE)),0,IF(VLOOKUP(A15,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A15,jehan[],1,FALSE)),0,IF(VLOOKUP(A15,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -1175,11 +1226,11 @@
         <v>136</v>
       </c>
       <c r="D16">
-        <f>IF(ISNA((VLOOKUP(A16,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A16,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A16,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A16,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A16,danger[],1,FALSE)),0,IF(VLOOKUP(A16,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A16,brenda[],1,FALSE)),0,IF(VLOOKUP(A16,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A16,madora[],1,FALSE)),0,IF(VLOOKUP(A16,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A16,jehan[],1,FALSE)),0,IF(VLOOKUP(A16,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1190,11 +1241,11 @@
         <v>136</v>
       </c>
       <c r="D17">
-        <f>IF(ISNA((VLOOKUP(A17,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A17,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A17,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A17,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A17,danger[],1,FALSE)),0,IF(VLOOKUP(A17,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A17,brenda[],1,FALSE)),0,IF(VLOOKUP(A17,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A17,madora[],1,FALSE)),0,IF(VLOOKUP(A17,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A17,jehan[],1,FALSE)),0,IF(VLOOKUP(A17,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -1205,11 +1256,11 @@
         <v>136</v>
       </c>
       <c r="D18">
-        <f>IF(ISNA((VLOOKUP(A18,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A18,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A18,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A18,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A18,danger[],1,FALSE)),0,IF(VLOOKUP(A18,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A18,brenda[],1,FALSE)),0,IF(VLOOKUP(A18,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A18,madora[],1,FALSE)),0,IF(VLOOKUP(A18,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A18,jehan[],1,FALSE)),0,IF(VLOOKUP(A18,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1220,11 +1271,11 @@
         <v>136</v>
       </c>
       <c r="D19">
-        <f>IF(ISNA((VLOOKUP(A19,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A19,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A19,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A19,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A19,danger[],1,FALSE)),0,IF(VLOOKUP(A19,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A19,brenda[],1,FALSE)),0,IF(VLOOKUP(A19,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A19,madora[],1,FALSE)),0,IF(VLOOKUP(A19,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A19,jehan[],1,FALSE)),0,IF(VLOOKUP(A19,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1235,86 +1286,86 @@
         <v>136</v>
       </c>
       <c r="D20">
-        <f>IF(ISNA((VLOOKUP(A20,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A20,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A20,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A20,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A20,danger[],1,FALSE)),0,IF(VLOOKUP(A20,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A20,brenda[],1,FALSE)),0,IF(VLOOKUP(A20,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A20,madora[],1,FALSE)),0,IF(VLOOKUP(A20,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A20,jehan[],1,FALSE)),0,IF(VLOOKUP(A20,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21">
-        <f>IF(ISNA((VLOOKUP(A21,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A21,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A21,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A21,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A21,danger[],1,FALSE)),0,IF(VLOOKUP(A21,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,brenda[],1,FALSE)),0,IF(VLOOKUP(A21,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,madora[],1,FALSE)),0,IF(VLOOKUP(A21,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,jehan[],1,FALSE)),0,IF(VLOOKUP(A21,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22">
-        <f>IF(ISNA((VLOOKUP(A22,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A22,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A22,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A22,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A22,danger[],1,FALSE)),0,IF(VLOOKUP(A22,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,brenda[],1,FALSE)),0,IF(VLOOKUP(A22,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,madora[],1,FALSE)),0,IF(VLOOKUP(A22,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,jehan[],1,FALSE)),0,IF(VLOOKUP(A22,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23">
-        <f>IF(ISNA((VLOOKUP(A23,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A23,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A23,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A23,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A23,danger[],1,FALSE)),0,IF(VLOOKUP(A23,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,brenda[],1,FALSE)),0,IF(VLOOKUP(A23,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,madora[],1,FALSE)),0,IF(VLOOKUP(A23,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,jehan[],1,FALSE)),0,IF(VLOOKUP(A23,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24">
-        <f>IF(ISNA((VLOOKUP(A24,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A24,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A24,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A24,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A24,danger[],1,FALSE)),0,IF(VLOOKUP(A24,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,brenda[],1,FALSE)),0,IF(VLOOKUP(A24,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,madora[],1,FALSE)),0,IF(VLOOKUP(A24,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,jehan[],1,FALSE)),0,IF(VLOOKUP(A24,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25">
-        <f>IF(ISNA((VLOOKUP(A25,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A25,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A25,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A25,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A25,danger[],1,FALSE)),0,IF(VLOOKUP(A25,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,brenda[],1,FALSE)),0,IF(VLOOKUP(A25,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,madora[],1,FALSE)),0,IF(VLOOKUP(A25,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,jehan[],1,FALSE)),0,IF(VLOOKUP(A25,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -1325,11 +1376,11 @@
         <v>136</v>
       </c>
       <c r="D26">
-        <f>IF(ISNA((VLOOKUP(A26,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A26,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A26,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A26,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A26,danger[],1,FALSE)),0,IF(VLOOKUP(A26,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A26,brenda[],1,FALSE)),0,IF(VLOOKUP(A26,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A26,madora[],1,FALSE)),0,IF(VLOOKUP(A26,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A26,jehan[],1,FALSE)),0,IF(VLOOKUP(A26,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1340,11 +1391,11 @@
         <v>136</v>
       </c>
       <c r="D27">
-        <f>IF(ISNA((VLOOKUP(A27,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A27,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A27,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A27,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A27,danger[],1,FALSE)),0,IF(VLOOKUP(A27,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A27,brenda[],1,FALSE)),0,IF(VLOOKUP(A27,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A27,madora[],1,FALSE)),0,IF(VLOOKUP(A27,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A27,jehan[],1,FALSE)),0,IF(VLOOKUP(A27,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1355,26 +1406,26 @@
         <v>136</v>
       </c>
       <c r="D28">
-        <f>IF(ISNA((VLOOKUP(A28,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A28,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A28,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A28,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A28,danger[],1,FALSE)),0,IF(VLOOKUP(A28,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A28,brenda[],1,FALSE)),0,IF(VLOOKUP(A28,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A28,madora[],1,FALSE)),0,IF(VLOOKUP(A28,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A28,jehan[],1,FALSE)),0,IF(VLOOKUP(A28,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29">
-        <f>IF(ISNA((VLOOKUP(A29,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A29,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A29,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A29,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A29,danger[],1,FALSE)),0,IF(VLOOKUP(A29,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,brenda[],1,FALSE)),0,IF(VLOOKUP(A29,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,madora[],1,FALSE)),0,IF(VLOOKUP(A29,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,jehan[],1,FALSE)),0,IF(VLOOKUP(A29,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1385,71 +1436,71 @@
         <v>137</v>
       </c>
       <c r="D30">
-        <f>IF(ISNA((VLOOKUP(A30,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A30,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A30,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A30,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A30,danger[],1,FALSE)),0,IF(VLOOKUP(A30,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A30,brenda[],1,FALSE)),0,IF(VLOOKUP(A30,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A30,madora[],1,FALSE)),0,IF(VLOOKUP(A30,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A30,jehan[],1,FALSE)),0,IF(VLOOKUP(A30,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
       </c>
       <c r="D31">
-        <f>IF(ISNA((VLOOKUP(A31,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A31,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A31,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A31,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A31,danger[],1,FALSE)),0,IF(VLOOKUP(A31,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,brenda[],1,FALSE)),0,IF(VLOOKUP(A31,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,madora[],1,FALSE)),0,IF(VLOOKUP(A31,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,jehan[],1,FALSE)),0,IF(VLOOKUP(A31,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>137</v>
       </c>
       <c r="D32">
-        <f>IF(ISNA((VLOOKUP(A32,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A32,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A32,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A32,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A32,danger[],1,FALSE)),0,IF(VLOOKUP(A32,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,brenda[],1,FALSE)),0,IF(VLOOKUP(A32,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,madora[],1,FALSE)),0,IF(VLOOKUP(A32,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,jehan[],1,FALSE)),0,IF(VLOOKUP(A32,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>137</v>
       </c>
       <c r="D33">
-        <f>IF(ISNA((VLOOKUP(A33,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A33,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A33,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A33,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A33,danger[],1,FALSE)),0,IF(VLOOKUP(A33,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,brenda[],1,FALSE)),0,IF(VLOOKUP(A33,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,madora[],1,FALSE)),0,IF(VLOOKUP(A33,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,jehan[],1,FALSE)),0,IF(VLOOKUP(A33,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>137</v>
       </c>
       <c r="D34">
-        <f>IF(ISNA((VLOOKUP(A34,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A34,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A34,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A34,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A34,danger[],1,FALSE)),0,IF(VLOOKUP(A34,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,brenda[],1,FALSE)),0,IF(VLOOKUP(A34,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,madora[],1,FALSE)),0,IF(VLOOKUP(A34,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,jehan[],1,FALSE)),0,IF(VLOOKUP(A34,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -1460,11 +1511,11 @@
         <v>137</v>
       </c>
       <c r="D35">
-        <f>IF(ISNA((VLOOKUP(A35,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A35,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A35,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A35,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A35,danger[],1,FALSE)),0,IF(VLOOKUP(A35,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A35,brenda[],1,FALSE)),0,IF(VLOOKUP(A35,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A35,madora[],1,FALSE)),0,IF(VLOOKUP(A35,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A35,jehan[],1,FALSE)),0,IF(VLOOKUP(A35,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1475,11 +1526,11 @@
         <v>137</v>
       </c>
       <c r="D36">
-        <f>IF(ISNA((VLOOKUP(A36,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A36,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A36,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A36,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A36,danger[],1,FALSE)),0,IF(VLOOKUP(A36,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A36,brenda[],1,FALSE)),0,IF(VLOOKUP(A36,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A36,madora[],1,FALSE)),0,IF(VLOOKUP(A36,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A36,jehan[],1,FALSE)),0,IF(VLOOKUP(A36,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1490,11 +1541,11 @@
         <v>137</v>
       </c>
       <c r="D37">
-        <f>IF(ISNA((VLOOKUP(A37,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A37,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A37,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A37,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A37,danger[],1,FALSE)),0,IF(VLOOKUP(A37,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A37,brenda[],1,FALSE)),0,IF(VLOOKUP(A37,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A37,madora[],1,FALSE)),0,IF(VLOOKUP(A37,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A37,jehan[],1,FALSE)),0,IF(VLOOKUP(A37,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1505,11 +1556,11 @@
         <v>137</v>
       </c>
       <c r="D38">
-        <f>IF(ISNA((VLOOKUP(A38,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A38,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A38,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A38,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A38,danger[],1,FALSE)),0,IF(VLOOKUP(A38,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A38,brenda[],1,FALSE)),0,IF(VLOOKUP(A38,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A38,madora[],1,FALSE)),0,IF(VLOOKUP(A38,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A38,jehan[],1,FALSE)),0,IF(VLOOKUP(A38,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1520,11 +1571,11 @@
         <v>137</v>
       </c>
       <c r="D39">
-        <f>IF(ISNA((VLOOKUP(A39,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A39,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A39,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A39,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A39,danger[],1,FALSE)),0,IF(VLOOKUP(A39,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A39,brenda[],1,FALSE)),0,IF(VLOOKUP(A39,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A39,madora[],1,FALSE)),0,IF(VLOOKUP(A39,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A39,jehan[],1,FALSE)),0,IF(VLOOKUP(A39,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1535,11 +1586,11 @@
         <v>137</v>
       </c>
       <c r="D40">
-        <f>IF(ISNA((VLOOKUP(A40,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A40,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A40,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A40,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A40,danger[],1,FALSE)),0,IF(VLOOKUP(A40,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A40,brenda[],1,FALSE)),0,IF(VLOOKUP(A40,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A40,madora[],1,FALSE)),0,IF(VLOOKUP(A40,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A40,jehan[],1,FALSE)),0,IF(VLOOKUP(A40,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1550,11 +1601,11 @@
         <v>137</v>
       </c>
       <c r="D41">
-        <f>IF(ISNA((VLOOKUP(A41,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A41,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A41,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A41,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A41,danger[],1,FALSE)),0,IF(VLOOKUP(A41,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A41,brenda[],1,FALSE)),0,IF(VLOOKUP(A41,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A41,madora[],1,FALSE)),0,IF(VLOOKUP(A41,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A41,jehan[],1,FALSE)),0,IF(VLOOKUP(A41,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1565,11 +1616,11 @@
         <v>137</v>
       </c>
       <c r="D42">
-        <f>IF(ISNA((VLOOKUP(A42,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A42,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A42,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A42,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A42,danger[],1,FALSE)),0,IF(VLOOKUP(A42,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A42,brenda[],1,FALSE)),0,IF(VLOOKUP(A42,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A42,madora[],1,FALSE)),0,IF(VLOOKUP(A42,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A42,jehan[],1,FALSE)),0,IF(VLOOKUP(A42,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1580,11 +1631,11 @@
         <v>137</v>
       </c>
       <c r="D43">
-        <f>IF(ISNA((VLOOKUP(A43,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A43,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A43,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A43,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A43,danger[],1,FALSE)),0,IF(VLOOKUP(A43,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A43,brenda[],1,FALSE)),0,IF(VLOOKUP(A43,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A43,madora[],1,FALSE)),0,IF(VLOOKUP(A43,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A43,jehan[],1,FALSE)),0,IF(VLOOKUP(A43,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1595,11 +1646,11 @@
         <v>137</v>
       </c>
       <c r="D44">
-        <f>IF(ISNA((VLOOKUP(A44,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A44,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A44,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A44,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A44,danger[],1,FALSE)),0,IF(VLOOKUP(A44,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A44,brenda[],1,FALSE)),0,IF(VLOOKUP(A44,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A44,madora[],1,FALSE)),0,IF(VLOOKUP(A44,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A44,jehan[],1,FALSE)),0,IF(VLOOKUP(A44,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1610,11 +1661,11 @@
         <v>137</v>
       </c>
       <c r="D45">
-        <f>IF(ISNA((VLOOKUP(A45,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A45,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A45,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A45,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A45,danger[],1,FALSE)),0,IF(VLOOKUP(A45,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A45,brenda[],1,FALSE)),0,IF(VLOOKUP(A45,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A45,madora[],1,FALSE)),0,IF(VLOOKUP(A45,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A45,jehan[],1,FALSE)),0,IF(VLOOKUP(A45,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -1625,11 +1676,11 @@
         <v>137</v>
       </c>
       <c r="D46">
-        <f>IF(ISNA((VLOOKUP(A46,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A46,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A46,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A46,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A46,danger[],1,FALSE)),0,IF(VLOOKUP(A46,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A46,brenda[],1,FALSE)),0,IF(VLOOKUP(A46,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A46,madora[],1,FALSE)),0,IF(VLOOKUP(A46,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A46,jehan[],1,FALSE)),0,IF(VLOOKUP(A46,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1640,11 +1691,11 @@
         <v>137</v>
       </c>
       <c r="D47">
-        <f>IF(ISNA((VLOOKUP(A47,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A47,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A47,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A47,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A47,danger[],1,FALSE)),0,IF(VLOOKUP(A47,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A47,brenda[],1,FALSE)),0,IF(VLOOKUP(A47,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A47,madora[],1,FALSE)),0,IF(VLOOKUP(A47,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A47,jehan[],1,FALSE)),0,IF(VLOOKUP(A47,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1655,11 +1706,11 @@
         <v>137</v>
       </c>
       <c r="D48">
-        <f>IF(ISNA((VLOOKUP(A48,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A48,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A48,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A48,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A48,danger[],1,FALSE)),0,IF(VLOOKUP(A48,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,brenda[],1,FALSE)),0,IF(VLOOKUP(A48,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,madora[],1,FALSE)),0,IF(VLOOKUP(A48,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,jehan[],1,FALSE)),0,IF(VLOOKUP(A48,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1670,11 +1721,11 @@
         <v>137</v>
       </c>
       <c r="D49">
-        <f>IF(ISNA((VLOOKUP(A49,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A49,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A49,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A49,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A49,danger[],1,FALSE)),0,IF(VLOOKUP(A49,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A49,brenda[],1,FALSE)),0,IF(VLOOKUP(A49,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A49,madora[],1,FALSE)),0,IF(VLOOKUP(A49,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A49,jehan[],1,FALSE)),0,IF(VLOOKUP(A49,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1685,11 +1736,11 @@
         <v>137</v>
       </c>
       <c r="D50">
-        <f>IF(ISNA((VLOOKUP(A50,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A50,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A50,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A50,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A50,danger[],1,FALSE)),0,IF(VLOOKUP(A50,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,brenda[],1,FALSE)),0,IF(VLOOKUP(A50,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,madora[],1,FALSE)),0,IF(VLOOKUP(A50,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,jehan[],1,FALSE)),0,IF(VLOOKUP(A50,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -1700,11 +1751,11 @@
         <v>137</v>
       </c>
       <c r="D51">
-        <f>IF(ISNA((VLOOKUP(A51,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A51,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A51,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A51,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A51,danger[],1,FALSE)),0,IF(VLOOKUP(A51,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,brenda[],1,FALSE)),0,IF(VLOOKUP(A51,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,madora[],1,FALSE)),0,IF(VLOOKUP(A51,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,jehan[],1,FALSE)),0,IF(VLOOKUP(A51,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -1715,11 +1766,11 @@
         <v>137</v>
       </c>
       <c r="D52">
-        <f>IF(ISNA((VLOOKUP(A52,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A52,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A52,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A52,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A52,danger[],1,FALSE)),0,IF(VLOOKUP(A52,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,brenda[],1,FALSE)),0,IF(VLOOKUP(A52,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,madora[],1,FALSE)),0,IF(VLOOKUP(A52,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,jehan[],1,FALSE)),0,IF(VLOOKUP(A52,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1730,56 +1781,56 @@
         <v>137</v>
       </c>
       <c r="D53">
-        <f>IF(ISNA((VLOOKUP(A53,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A53,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A53,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A53,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A53,danger[],1,FALSE)),0,IF(VLOOKUP(A53,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A53,brenda[],1,FALSE)),0,IF(VLOOKUP(A53,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A53,madora[],1,FALSE)),0,IF(VLOOKUP(A53,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A53,jehan[],1,FALSE)),0,IF(VLOOKUP(A53,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
       </c>
       <c r="D54">
-        <f>IF(ISNA((VLOOKUP(A54,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A54,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A54,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A54,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A54,danger[],1,FALSE)),0,IF(VLOOKUP(A54,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,brenda[],1,FALSE)),0,IF(VLOOKUP(A54,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,madora[],1,FALSE)),0,IF(VLOOKUP(A54,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,jehan[],1,FALSE)),0,IF(VLOOKUP(A54,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>137</v>
       </c>
       <c r="D55">
-        <f>IF(ISNA((VLOOKUP(A55,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A55,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A55,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A55,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A55,danger[],1,FALSE)),0,IF(VLOOKUP(A55,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,brenda[],1,FALSE)),0,IF(VLOOKUP(A55,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,madora[],1,FALSE)),0,IF(VLOOKUP(A55,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,jehan[],1,FALSE)),0,IF(VLOOKUP(A55,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
       </c>
       <c r="D56">
-        <f>IF(ISNA((VLOOKUP(A56,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A56,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A56,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A56,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A56,danger[],1,FALSE)),0,IF(VLOOKUP(A56,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,brenda[],1,FALSE)),0,IF(VLOOKUP(A56,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,madora[],1,FALSE)),0,IF(VLOOKUP(A56,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,jehan[],1,FALSE)),0,IF(VLOOKUP(A56,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1790,86 +1841,86 @@
         <v>137</v>
       </c>
       <c r="D57">
-        <f>IF(ISNA((VLOOKUP(A57,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A57,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A57,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A57,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A57,danger[],1,FALSE)),0,IF(VLOOKUP(A57,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A57,brenda[],1,FALSE)),0,IF(VLOOKUP(A57,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A57,madora[],1,FALSE)),0,IF(VLOOKUP(A57,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A57,jehan[],1,FALSE)),0,IF(VLOOKUP(A57,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>137</v>
       </c>
       <c r="D58">
-        <f>IF(ISNA((VLOOKUP(A58,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A58,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A58,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A58,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A58,danger[],1,FALSE)),0,IF(VLOOKUP(A58,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,brenda[],1,FALSE)),0,IF(VLOOKUP(A58,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,madora[],1,FALSE)),0,IF(VLOOKUP(A58,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,jehan[],1,FALSE)),0,IF(VLOOKUP(A58,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>137</v>
       </c>
       <c r="D59">
-        <f>IF(ISNA((VLOOKUP(A59,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A59,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A59,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A59,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A59,danger[],1,FALSE)),0,IF(VLOOKUP(A59,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,brenda[],1,FALSE)),0,IF(VLOOKUP(A59,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,madora[],1,FALSE)),0,IF(VLOOKUP(A59,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,jehan[],1,FALSE)),0,IF(VLOOKUP(A59,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
         <v>137</v>
       </c>
       <c r="D60">
-        <f>IF(ISNA((VLOOKUP(A60,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A60,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A60,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A60,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A60,danger[],1,FALSE)),0,IF(VLOOKUP(A60,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,brenda[],1,FALSE)),0,IF(VLOOKUP(A60,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,madora[],1,FALSE)),0,IF(VLOOKUP(A60,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,jehan[],1,FALSE)),0,IF(VLOOKUP(A60,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
       </c>
       <c r="D61">
-        <f>IF(ISNA((VLOOKUP(A61,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A61,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A61,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A61,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A61,danger[],1,FALSE)),0,IF(VLOOKUP(A61,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,brenda[],1,FALSE)),0,IF(VLOOKUP(A61,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,madora[],1,FALSE)),0,IF(VLOOKUP(A61,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,jehan[],1,FALSE)),0,IF(VLOOKUP(A61,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>137</v>
       </c>
       <c r="D62">
-        <f>IF(ISNA((VLOOKUP(A62,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A62,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A62,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A62,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A62,danger[],1,FALSE)),0,IF(VLOOKUP(A62,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,brenda[],1,FALSE)),0,IF(VLOOKUP(A62,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,madora[],1,FALSE)),0,IF(VLOOKUP(A62,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,jehan[],1,FALSE)),0,IF(VLOOKUP(A62,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -1880,41 +1931,41 @@
         <v>137</v>
       </c>
       <c r="D63">
-        <f>IF(ISNA((VLOOKUP(A63,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A63,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A63,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A63,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A63,danger[],1,FALSE)),0,IF(VLOOKUP(A63,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A63,brenda[],1,FALSE)),0,IF(VLOOKUP(A63,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A63,madora[],1,FALSE)),0,IF(VLOOKUP(A63,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A63,jehan[],1,FALSE)),0,IF(VLOOKUP(A63,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64">
-        <f>IF(ISNA((VLOOKUP(A64,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A64,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A64,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A64,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A64,danger[],1,FALSE)),0,IF(VLOOKUP(A64,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,brenda[],1,FALSE)),0,IF(VLOOKUP(A64,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,madora[],1,FALSE)),0,IF(VLOOKUP(A64,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,jehan[],1,FALSE)),0,IF(VLOOKUP(A64,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65">
-        <f>IF(ISNA((VLOOKUP(A65,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A65,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A65,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A65,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A65,danger[],1,FALSE)),0,IF(VLOOKUP(A65,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,brenda[],1,FALSE)),0,IF(VLOOKUP(A65,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,madora[],1,FALSE)),0,IF(VLOOKUP(A65,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,jehan[],1,FALSE)),0,IF(VLOOKUP(A65,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -1925,41 +1976,41 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <f>IF(ISNA((VLOOKUP(A66,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A66,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A66,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A66,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A66,danger[],1,FALSE)),0,IF(VLOOKUP(A66,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A66,brenda[],1,FALSE)),0,IF(VLOOKUP(A66,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A66,madora[],1,FALSE)),0,IF(VLOOKUP(A66,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A66,jehan[],1,FALSE)),0,IF(VLOOKUP(A66,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67">
-        <f>IF(ISNA((VLOOKUP(A67,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A67,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A67,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A67,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A67,danger[],1,FALSE)),0,IF(VLOOKUP(A67,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,brenda[],1,FALSE)),0,IF(VLOOKUP(A67,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,madora[],1,FALSE)),0,IF(VLOOKUP(A67,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,jehan[],1,FALSE)),0,IF(VLOOKUP(A67,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68">
-        <f>IF(ISNA((VLOOKUP(A68,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A68,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A68,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A68,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A68,danger[],1,FALSE)),0,IF(VLOOKUP(A68,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,brenda[],1,FALSE)),0,IF(VLOOKUP(A68,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,madora[],1,FALSE)),0,IF(VLOOKUP(A68,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,jehan[],1,FALSE)),0,IF(VLOOKUP(A68,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -1970,11 +2021,11 @@
         <v>137</v>
       </c>
       <c r="D69">
-        <f>IF(ISNA((VLOOKUP(A69,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A69,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A69,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A69,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A69,danger[],1,FALSE)),0,IF(VLOOKUP(A69,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A69,brenda[],1,FALSE)),0,IF(VLOOKUP(A69,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A69,madora[],1,FALSE)),0,IF(VLOOKUP(A69,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A69,jehan[],1,FALSE)),0,IF(VLOOKUP(A69,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -1985,41 +2036,41 @@
         <v>137</v>
       </c>
       <c r="D70">
-        <f>IF(ISNA((VLOOKUP(A70,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A70,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A70,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A70,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A70,danger[],1,FALSE)),0,IF(VLOOKUP(A70,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A70,brenda[],1,FALSE)),0,IF(VLOOKUP(A70,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A70,madora[],1,FALSE)),0,IF(VLOOKUP(A70,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A70,jehan[],1,FALSE)),0,IF(VLOOKUP(A70,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71">
-        <f>IF(ISNA((VLOOKUP(A71,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A71,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A71,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A71,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A71,danger[],1,FALSE)),0,IF(VLOOKUP(A71,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,brenda[],1,FALSE)),0,IF(VLOOKUP(A71,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,madora[],1,FALSE)),0,IF(VLOOKUP(A71,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,jehan[],1,FALSE)),0,IF(VLOOKUP(A71,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72">
-        <f>IF(ISNA((VLOOKUP(A72,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A72,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A72,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A72,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A72,danger[],1,FALSE)),0,IF(VLOOKUP(A72,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,brenda[],1,FALSE)),0,IF(VLOOKUP(A72,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,madora[],1,FALSE)),0,IF(VLOOKUP(A72,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,jehan[],1,FALSE)),0,IF(VLOOKUP(A72,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2030,41 +2081,41 @@
         <v>137</v>
       </c>
       <c r="D73">
-        <f>IF(ISNA((VLOOKUP(A73,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A73,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A73,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A73,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A73,danger[],1,FALSE)),0,IF(VLOOKUP(A73,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A73,brenda[],1,FALSE)),0,IF(VLOOKUP(A73,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A73,madora[],1,FALSE)),0,IF(VLOOKUP(A73,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A73,jehan[],1,FALSE)),0,IF(VLOOKUP(A73,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74">
-        <f>IF(ISNA((VLOOKUP(A74,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A74,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A74,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A74,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A74,danger[],1,FALSE)),0,IF(VLOOKUP(A74,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,brenda[],1,FALSE)),0,IF(VLOOKUP(A74,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,madora[],1,FALSE)),0,IF(VLOOKUP(A74,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,jehan[],1,FALSE)),0,IF(VLOOKUP(A74,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75">
-        <f>IF(ISNA((VLOOKUP(A75,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A75,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A75,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A75,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A75,danger[],1,FALSE)),0,IF(VLOOKUP(A75,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,brenda[],1,FALSE)),0,IF(VLOOKUP(A75,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,madora[],1,FALSE)),0,IF(VLOOKUP(A75,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,jehan[],1,FALSE)),0,IF(VLOOKUP(A75,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2075,11 +2126,11 @@
         <v>138</v>
       </c>
       <c r="D76">
-        <f>IF(ISNA((VLOOKUP(A76,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A76,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A76,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A76,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A76,danger[],1,FALSE)),0,IF(VLOOKUP(A76,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A76,brenda[],1,FALSE)),0,IF(VLOOKUP(A76,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A76,madora[],1,FALSE)),0,IF(VLOOKUP(A76,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A76,jehan[],1,FALSE)),0,IF(VLOOKUP(A76,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2090,11 +2141,11 @@
         <v>138</v>
       </c>
       <c r="D77">
-        <f>IF(ISNA((VLOOKUP(A77,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A77,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A77,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A77,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A77,danger[],1,FALSE)),0,IF(VLOOKUP(A77,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,brenda[],1,FALSE)),0,IF(VLOOKUP(A77,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,madora[],1,FALSE)),0,IF(VLOOKUP(A77,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,jehan[],1,FALSE)),0,IF(VLOOKUP(A77,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2105,29 +2156,29 @@
         <v>138</v>
       </c>
       <c r="D78">
-        <f>IF(ISNA((VLOOKUP(A78,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A78,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A78,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A78,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A78,danger[],1,FALSE)),0,IF(VLOOKUP(A78,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,brenda[],1,FALSE)),0,IF(VLOOKUP(A78,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,madora[],1,FALSE)),0,IF(VLOOKUP(A78,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,jehan[],1,FALSE)),0,IF(VLOOKUP(A78,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79">
+        <f>IF(ISNA(VLOOKUP(A79,danger[],1,FALSE)),0,IF(VLOOKUP(A79,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,brenda[],1,FALSE)),0,IF(VLOOKUP(A79,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,madora[],1,FALSE)),0,IF(VLOOKUP(A79,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,jehan[],1,FALSE)),0,IF(VLOOKUP(A79,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>32</v>
       </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79">
-        <f>IF(ISNA((VLOOKUP(A79,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A79,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A79,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A79,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -2135,11 +2186,11 @@
         <v>138</v>
       </c>
       <c r="D80">
-        <f>IF(ISNA((VLOOKUP(A80,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A80,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A80,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A80,jehan[],1,FALSE))),0,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A80,danger[],1,FALSE)),0,IF(VLOOKUP(A80,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,brenda[],1,FALSE)),0,IF(VLOOKUP(A80,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,madora[],1,FALSE)),0,IF(VLOOKUP(A80,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,jehan[],1,FALSE)),0,IF(VLOOKUP(A80,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2150,11 +2201,11 @@
         <v>138</v>
       </c>
       <c r="D81">
-        <f>IF(ISNA((VLOOKUP(A81,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A81,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A81,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A81,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A81,danger[],1,FALSE)),0,IF(VLOOKUP(A81,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,brenda[],1,FALSE)),0,IF(VLOOKUP(A81,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,madora[],1,FALSE)),0,IF(VLOOKUP(A81,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,jehan[],1,FALSE)),0,IF(VLOOKUP(A81,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2165,11 +2216,11 @@
         <v>138</v>
       </c>
       <c r="D82">
-        <f>IF(ISNA((VLOOKUP(A82,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A82,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A82,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A82,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2180,11 +2231,11 @@
         <v>138</v>
       </c>
       <c r="D83">
-        <f>IF(ISNA((VLOOKUP(A83,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A83,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A83,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A83,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A83,danger[],1,FALSE)),0,IF(VLOOKUP(A83,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A83,brenda[],1,FALSE)),0,IF(VLOOKUP(A83,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A83,madora[],1,FALSE)),0,IF(VLOOKUP(A83,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A83,jehan[],1,FALSE)),0,IF(VLOOKUP(A83,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2195,26 +2246,26 @@
         <v>138</v>
       </c>
       <c r="D84">
-        <f>IF(ISNA((VLOOKUP(A84,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A84,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A84,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A84,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A84,danger[],1,FALSE)),0,IF(VLOOKUP(A84,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A84,brenda[],1,FALSE)),0,IF(VLOOKUP(A84,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A84,madora[],1,FALSE)),0,IF(VLOOKUP(A84,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A84,jehan[],1,FALSE)),0,IF(VLOOKUP(A84,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>138</v>
       </c>
       <c r="D85">
-        <f>IF(ISNA((VLOOKUP(A85,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A85,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A85,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A85,jehan[],1,FALSE))),0,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A85,danger[],1,FALSE)),0,IF(VLOOKUP(A85,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,brenda[],1,FALSE)),0,IF(VLOOKUP(A85,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,madora[],1,FALSE)),0,IF(VLOOKUP(A85,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,jehan[],1,FALSE)),0,IF(VLOOKUP(A85,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2276,41 @@
         <v>138</v>
       </c>
       <c r="D86">
-        <f>IF(ISNA((VLOOKUP(A86,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A86,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A86,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A86,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A86,danger[],1,FALSE)),0,IF(VLOOKUP(A86,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A86,brenda[],1,FALSE)),0,IF(VLOOKUP(A86,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A86,madora[],1,FALSE)),0,IF(VLOOKUP(A86,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A86,jehan[],1,FALSE)),0,IF(VLOOKUP(A86,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>138</v>
       </c>
       <c r="D87">
-        <f>IF(ISNA((VLOOKUP(A87,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A87,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A87,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A87,jehan[],1,FALSE))),0,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A87,danger[],1,FALSE)),0,IF(VLOOKUP(A87,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,brenda[],1,FALSE)),0,IF(VLOOKUP(A87,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,madora[],1,FALSE)),0,IF(VLOOKUP(A87,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,jehan[],1,FALSE)),0,IF(VLOOKUP(A87,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>138</v>
       </c>
       <c r="D88">
-        <f>IF(ISNA((VLOOKUP(A88,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A88,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A88,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A88,jehan[],1,FALSE))),0,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A88,danger[],1,FALSE)),0,IF(VLOOKUP(A88,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,brenda[],1,FALSE)),0,IF(VLOOKUP(A88,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,madora[],1,FALSE)),0,IF(VLOOKUP(A88,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,jehan[],1,FALSE)),0,IF(VLOOKUP(A88,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2270,71 +2321,71 @@
         <v>138</v>
       </c>
       <c r="D89">
-        <f>IF(ISNA((VLOOKUP(A89,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A89,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A89,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A89,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A89,danger[],1,FALSE)),0,IF(VLOOKUP(A89,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A89,brenda[],1,FALSE)),0,IF(VLOOKUP(A89,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A89,madora[],1,FALSE)),0,IF(VLOOKUP(A89,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A89,jehan[],1,FALSE)),0,IF(VLOOKUP(A89,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>138</v>
       </c>
       <c r="D90">
-        <f>IF(ISNA((VLOOKUP(A90,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A90,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A90,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A90,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A90,danger[],1,FALSE)),0,IF(VLOOKUP(A90,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A90,brenda[],1,FALSE)),0,IF(VLOOKUP(A90,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A90,madora[],1,FALSE)),0,IF(VLOOKUP(A90,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A90,jehan[],1,FALSE)),0,IF(VLOOKUP(A90,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>138</v>
       </c>
       <c r="D91">
-        <f>IF(ISNA((VLOOKUP(A91,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A91,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A91,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A91,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A91,danger[],1,FALSE)),0,IF(VLOOKUP(A91,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,brenda[],1,FALSE)),0,IF(VLOOKUP(A91,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,madora[],1,FALSE)),0,IF(VLOOKUP(A91,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,jehan[],1,FALSE)),0,IF(VLOOKUP(A91,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
       </c>
       <c r="D92">
-        <f>IF(ISNA((VLOOKUP(A92,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A92,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A92,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A92,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A92,danger[],1,FALSE)),0,IF(VLOOKUP(A92,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,brenda[],1,FALSE)),0,IF(VLOOKUP(A92,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,madora[],1,FALSE)),0,IF(VLOOKUP(A92,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,jehan[],1,FALSE)),0,IF(VLOOKUP(A92,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
       </c>
       <c r="D93">
-        <f>IF(ISNA((VLOOKUP(A93,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A93,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A93,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A93,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A93,danger[],1,FALSE)),0,IF(VLOOKUP(A93,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,brenda[],1,FALSE)),0,IF(VLOOKUP(A93,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,madora[],1,FALSE)),0,IF(VLOOKUP(A93,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,jehan[],1,FALSE)),0,IF(VLOOKUP(A93,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -2345,193 +2396,193 @@
         <v>138</v>
       </c>
       <c r="D94">
-        <f>IF(ISNA((VLOOKUP(A94,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A94,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A94,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A94,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A94,danger[],1,FALSE)),0,IF(VLOOKUP(A94,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A94,brenda[],1,FALSE)),0,IF(VLOOKUP(A94,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A94,madora[],1,FALSE)),0,IF(VLOOKUP(A94,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A94,jehan[],1,FALSE)),0,IF(VLOOKUP(A94,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95">
+        <f>IF(ISNA(VLOOKUP(A95,danger[],1,FALSE)),0,IF(VLOOKUP(A95,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,brenda[],1,FALSE)),0,IF(VLOOKUP(A95,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,madora[],1,FALSE)),0,IF(VLOOKUP(A95,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,jehan[],1,FALSE)),0,IF(VLOOKUP(A95,jehan[],4,FALSE)="",1,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <f>IF(ISNA(VLOOKUP(A96,danger[],1,FALSE)),0,IF(VLOOKUP(A96,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,brenda[],1,FALSE)),0,IF(VLOOKUP(A96,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,madora[],1,FALSE)),0,IF(VLOOKUP(A96,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,jehan[],1,FALSE)),0,IF(VLOOKUP(A96,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
-      <c r="C95" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95">
-        <f>IF(ISNA((VLOOKUP(A95,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A95,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A95,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A95,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96">
-        <f>IF(ISNA((VLOOKUP(A96,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A96,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A96,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A96,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97">
+        <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>19</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97">
-        <f>IF(ISNA((VLOOKUP(A97,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A97,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A97,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A97,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98">
+        <f>IF(ISNA(VLOOKUP(A98,danger[],1,FALSE)),0,IF(VLOOKUP(A98,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,brenda[],1,FALSE)),0,IF(VLOOKUP(A98,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,madora[],1,FALSE)),0,IF(VLOOKUP(A98,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,jehan[],1,FALSE)),0,IF(VLOOKUP(A98,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>27</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98">
-        <f>IF(ISNA((VLOOKUP(A98,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A98,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A98,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A98,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99">
+        <f>IF(ISNA(VLOOKUP(A99,danger[],1,FALSE)),0,IF(VLOOKUP(A99,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,brenda[],1,FALSE)),0,IF(VLOOKUP(A99,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,madora[],1,FALSE)),0,IF(VLOOKUP(A99,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,jehan[],1,FALSE)),0,IF(VLOOKUP(A99,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>35</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99">
-        <f>IF(ISNA((VLOOKUP(A99,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A99,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A99,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A99,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100">
+        <f>IF(ISNA(VLOOKUP(A100,danger[],1,FALSE)),0,IF(VLOOKUP(A100,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A100,brenda[],1,FALSE)),0,IF(VLOOKUP(A100,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A100,madora[],1,FALSE)),0,IF(VLOOKUP(A100,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A100,jehan[],1,FALSE)),0,IF(VLOOKUP(A100,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>43</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100">
-        <f>IF(ISNA((VLOOKUP(A100,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A100,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A100,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A100,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
         <v>138</v>
       </c>
       <c r="D101">
-        <f>IF(ISNA((VLOOKUP(A101,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A101,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A101,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A101,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>138</v>
       </c>
       <c r="D102">
-        <f>IF(ISNA((VLOOKUP(A102,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A102,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A102,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A102,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A102,danger[],1,FALSE)),0,IF(VLOOKUP(A102,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,brenda[],1,FALSE)),0,IF(VLOOKUP(A102,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,madora[],1,FALSE)),0,IF(VLOOKUP(A102,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,jehan[],1,FALSE)),0,IF(VLOOKUP(A102,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>138</v>
       </c>
       <c r="D103">
-        <f>IF(ISNA((VLOOKUP(A103,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A103,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A103,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A103,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A103,danger[],1,FALSE)),0,IF(VLOOKUP(A103,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,brenda[],1,FALSE)),0,IF(VLOOKUP(A103,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,madora[],1,FALSE)),0,IF(VLOOKUP(A103,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,jehan[],1,FALSE)),0,IF(VLOOKUP(A103,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>138</v>
       </c>
       <c r="D104">
-        <f>IF(ISNA((VLOOKUP(A104,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A104,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A104,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A104,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A104,danger[],1,FALSE)),0,IF(VLOOKUP(A104,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,brenda[],1,FALSE)),0,IF(VLOOKUP(A104,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,madora[],1,FALSE)),0,IF(VLOOKUP(A104,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,jehan[],1,FALSE)),0,IF(VLOOKUP(A104,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>138</v>
       </c>
       <c r="D105">
-        <f>IF(ISNA((VLOOKUP(A105,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A105,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A105,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A105,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A105,danger[],1,FALSE)),0,IF(VLOOKUP(A105,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,brenda[],1,FALSE)),0,IF(VLOOKUP(A105,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,madora[],1,FALSE)),0,IF(VLOOKUP(A105,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,jehan[],1,FALSE)),0,IF(VLOOKUP(A105,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>138</v>
       </c>
       <c r="D106">
-        <f>IF(ISNA((VLOOKUP(A106,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A106,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A106,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A106,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A106,danger[],1,FALSE)),0,IF(VLOOKUP(A106,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,brenda[],1,FALSE)),0,IF(VLOOKUP(A106,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,madora[],1,FALSE)),0,IF(VLOOKUP(A106,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,jehan[],1,FALSE)),0,IF(VLOOKUP(A106,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2540,41 +2591,41 @@
         <v>138</v>
       </c>
       <c r="D107">
-        <f>IF(ISNA((VLOOKUP(A107,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A107,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A107,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A107,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A107,danger[],1,FALSE)),0,IF(VLOOKUP(A107,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,brenda[],1,FALSE)),0,IF(VLOOKUP(A107,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,madora[],1,FALSE)),0,IF(VLOOKUP(A107,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,jehan[],1,FALSE)),0,IF(VLOOKUP(A107,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
         <v>138</v>
       </c>
       <c r="D108">
-        <f>IF(ISNA((VLOOKUP(A108,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A108,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A108,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A108,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A108,danger[],1,FALSE)),0,IF(VLOOKUP(A108,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,brenda[],1,FALSE)),0,IF(VLOOKUP(A108,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,madora[],1,FALSE)),0,IF(VLOOKUP(A108,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,jehan[],1,FALSE)),0,IF(VLOOKUP(A108,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
         <v>138</v>
       </c>
       <c r="D109">
-        <f>IF(ISNA((VLOOKUP(A109,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A109,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A109,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A109,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A109,danger[],1,FALSE)),0,IF(VLOOKUP(A109,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,brenda[],1,FALSE)),0,IF(VLOOKUP(A109,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,madora[],1,FALSE)),0,IF(VLOOKUP(A109,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,jehan[],1,FALSE)),0,IF(VLOOKUP(A109,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2585,41 +2636,41 @@
         <v>138</v>
       </c>
       <c r="D110">
-        <f>IF(ISNA((VLOOKUP(A110,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A110,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A110,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A110,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A110,danger[],1,FALSE)),0,IF(VLOOKUP(A110,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A110,brenda[],1,FALSE)),0,IF(VLOOKUP(A110,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A110,madora[],1,FALSE)),0,IF(VLOOKUP(A110,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A110,jehan[],1,FALSE)),0,IF(VLOOKUP(A110,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
         <v>138</v>
       </c>
       <c r="D111">
-        <f>IF(ISNA((VLOOKUP(A111,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A111,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A111,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A111,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A111,danger[],1,FALSE)),0,IF(VLOOKUP(A111,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,brenda[],1,FALSE)),0,IF(VLOOKUP(A111,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,madora[],1,FALSE)),0,IF(VLOOKUP(A111,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,jehan[],1,FALSE)),0,IF(VLOOKUP(A111,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
         <v>138</v>
       </c>
       <c r="D112">
-        <f>IF(ISNA((VLOOKUP(A112,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A112,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A112,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A112,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A112,danger[],1,FALSE)),0,IF(VLOOKUP(A112,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,brenda[],1,FALSE)),0,IF(VLOOKUP(A112,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,madora[],1,FALSE)),0,IF(VLOOKUP(A112,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,jehan[],1,FALSE)),0,IF(VLOOKUP(A112,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2630,71 +2681,71 @@
         <v>138</v>
       </c>
       <c r="D113">
-        <f>IF(ISNA((VLOOKUP(A113,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A113,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A113,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A113,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A113,danger[],1,FALSE)),0,IF(VLOOKUP(A113,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A113,brenda[],1,FALSE)),0,IF(VLOOKUP(A113,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A113,madora[],1,FALSE)),0,IF(VLOOKUP(A113,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A113,jehan[],1,FALSE)),0,IF(VLOOKUP(A113,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
         <v>138</v>
       </c>
       <c r="D114">
-        <f>IF(ISNA((VLOOKUP(A114,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A114,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A114,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A114,jehan[],1,FALSE))),0,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A114,danger[],1,FALSE)),0,IF(VLOOKUP(A114,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,brenda[],1,FALSE)),0,IF(VLOOKUP(A114,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,madora[],1,FALSE)),0,IF(VLOOKUP(A114,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,jehan[],1,FALSE)),0,IF(VLOOKUP(A114,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>138</v>
       </c>
       <c r="D115">
-        <f>IF(ISNA((VLOOKUP(A115,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A115,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A115,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A115,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A115,danger[],1,FALSE)),0,IF(VLOOKUP(A115,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,brenda[],1,FALSE)),0,IF(VLOOKUP(A115,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,madora[],1,FALSE)),0,IF(VLOOKUP(A115,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,jehan[],1,FALSE)),0,IF(VLOOKUP(A115,jehan[],4,FALSE)="",1,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>138</v>
       </c>
       <c r="D116">
-        <f>IF(ISNA((VLOOKUP(A116,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A116,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A116,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A116,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A116,danger[],1,FALSE)),0,IF(VLOOKUP(A116,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,brenda[],1,FALSE)),0,IF(VLOOKUP(A116,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,madora[],1,FALSE)),0,IF(VLOOKUP(A116,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,jehan[],1,FALSE)),0,IF(VLOOKUP(A116,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>138</v>
       </c>
       <c r="D117">
-        <f>IF(ISNA((VLOOKUP(A117,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A117,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A117,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A117,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A117,danger[],1,FALSE)),0,IF(VLOOKUP(A117,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,brenda[],1,FALSE)),0,IF(VLOOKUP(A117,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,madora[],1,FALSE)),0,IF(VLOOKUP(A117,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,jehan[],1,FALSE)),0,IF(VLOOKUP(A117,jehan[],4,FALSE)="",1,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -2705,58 +2756,58 @@
         <v>138</v>
       </c>
       <c r="D118">
-        <f>IF(ISNA((VLOOKUP(A118,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A118,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A118,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A118,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A118,danger[],1,FALSE)),0,IF(VLOOKUP(A118,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A118,brenda[],1,FALSE)),0,IF(VLOOKUP(A118,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A118,madora[],1,FALSE)),0,IF(VLOOKUP(A118,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A118,jehan[],1,FALSE)),0,IF(VLOOKUP(A118,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>138</v>
       </c>
       <c r="D119">
-        <f>IF(ISNA((VLOOKUP(A119,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A119,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A119,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A119,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A119,danger[],1,FALSE)),0,IF(VLOOKUP(A119,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,brenda[],1,FALSE)),0,IF(VLOOKUP(A119,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,madora[],1,FALSE)),0,IF(VLOOKUP(A119,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,jehan[],1,FALSE)),0,IF(VLOOKUP(A119,jehan[],4,FALSE)="",1,0))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>138</v>
       </c>
       <c r="D120">
-        <f>IF(ISNA((VLOOKUP(A120,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A120,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A120,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A120,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A120,danger[],1,FALSE)),0,IF(VLOOKUP(A120,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,brenda[],1,FALSE)),0,IF(VLOOKUP(A120,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,madora[],1,FALSE)),0,IF(VLOOKUP(A120,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,jehan[],1,FALSE)),0,IF(VLOOKUP(A120,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>138</v>
       </c>
       <c r="D121">
-        <f>IF(ISNA((VLOOKUP(A121,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A121,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A121,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A121,jehan[],1,FALSE))),0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A121,danger[],1,FALSE)),0,IF(VLOOKUP(A121,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,brenda[],1,FALSE)),0,IF(VLOOKUP(A121,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,madora[],1,FALSE)),0,IF(VLOOKUP(A121,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,jehan[],1,FALSE)),0,IF(VLOOKUP(A121,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -2765,56 +2816,56 @@
         <v>138</v>
       </c>
       <c r="D122">
-        <f>IF(ISNA((VLOOKUP(A122,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A122,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A122,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A122,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A122,danger[],1,FALSE)),0,IF(VLOOKUP(A122,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,brenda[],1,FALSE)),0,IF(VLOOKUP(A122,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,madora[],1,FALSE)),0,IF(VLOOKUP(A122,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,jehan[],1,FALSE)),0,IF(VLOOKUP(A122,jehan[],4,FALSE)="",1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
       <c r="C123" t="s">
         <v>138</v>
       </c>
       <c r="D123">
-        <f>IF(ISNA((VLOOKUP(A123,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A123,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A123,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A123,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A123,danger[],1,FALSE)),0,IF(VLOOKUP(A123,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,brenda[],1,FALSE)),0,IF(VLOOKUP(A123,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,madora[],1,FALSE)),0,IF(VLOOKUP(A123,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,jehan[],1,FALSE)),0,IF(VLOOKUP(A123,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>31</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
       <c r="C124" t="s">
         <v>138</v>
       </c>
       <c r="D124">
-        <f>IF(ISNA((VLOOKUP(A124,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A124,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A124,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A124,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125">
-        <f>IF(ISNA((VLOOKUP(A125,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A125,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A125,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A125,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A125,danger[],1,FALSE)),0,IF(VLOOKUP(A125,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,brenda[],1,FALSE)),0,IF(VLOOKUP(A125,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,madora[],1,FALSE)),0,IF(VLOOKUP(A125,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,jehan[],1,FALSE)),0,IF(VLOOKUP(A125,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -2825,53 +2876,53 @@
         <v>138</v>
       </c>
       <c r="D126">
-        <f>IF(ISNA((VLOOKUP(A126,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A126,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A126,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A126,jehan[],1,FALSE))),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A126,danger[],1,FALSE)),0,IF(VLOOKUP(A126,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A126,brenda[],1,FALSE)),0,IF(VLOOKUP(A126,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A126,madora[],1,FALSE)),0,IF(VLOOKUP(A126,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A126,jehan[],1,FALSE)),0,IF(VLOOKUP(A126,jehan[],4,FALSE)="",1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>138</v>
       </c>
       <c r="D127">
-        <f>IF(ISNA((VLOOKUP(A127,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A127,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A127,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A127,jehan[],1,FALSE))),0,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+        <f>IF(ISNA(VLOOKUP(A127,danger[],1,FALSE)),0,IF(VLOOKUP(A127,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,brenda[],1,FALSE)),0,IF(VLOOKUP(A127,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,madora[],1,FALSE)),0,IF(VLOOKUP(A127,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,jehan[],1,FALSE)),0,IF(VLOOKUP(A127,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>138</v>
       </c>
       <c r="D128">
-        <f>IF(ISNA((VLOOKUP(A128,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A128,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A128,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A128,jehan[],1,FALSE))),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(A128,danger[],1,FALSE)),0,IF(VLOOKUP(A128,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A128,brenda[],1,FALSE)),0,IF(VLOOKUP(A128,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A128,madora[],1,FALSE)),0,IF(VLOOKUP(A128,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A128,jehan[],1,FALSE)),0,IF(VLOOKUP(A128,jehan[],4,FALSE)="",1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>61</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
       <c r="C129" t="s">
         <v>138</v>
       </c>
       <c r="D129">
-        <f>IF(ISNA((VLOOKUP(A129,danger[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A129,brenda[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A129,madora[],1,FALSE))),0,1)+IF(ISNA((VLOOKUP(A129,jehan[],1,FALSE))),0,1)</f>
-        <v>4</v>
+        <f>IF(ISNA(VLOOKUP(A129,danger[],1,FALSE)),0,IF(VLOOKUP(A129,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,brenda[],1,FALSE)),0,IF(VLOOKUP(A129,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,madora[],1,FALSE)),0,IF(VLOOKUP(A129,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,jehan[],1,FALSE)),0,IF(VLOOKUP(A129,jehan[],4,FALSE)="",1,0))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2887,17 +2938,17 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.9296875" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2912,48 +2963,48 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2964,12 +3015,12 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>137</v>
@@ -2977,12 +3028,12 @@
       <c r="D6" s="1"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>137</v>
@@ -2990,12 +3041,12 @@
       <c r="D7" s="1"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>137</v>
@@ -3003,129 +3054,129 @@
       <c r="D8" s="1"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>138</v>
@@ -3133,12 +3184,12 @@
       <c r="D18" s="1"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>138</v>
@@ -3146,77 +3197,79 @@
       <c r="D19" s="1"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>138</v>
@@ -3224,12 +3277,12 @@
       <c r="D25" s="1"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>138</v>
@@ -3237,12 +3290,12 @@
       <c r="D26" s="1"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>138</v>
@@ -3250,12 +3303,12 @@
       <c r="D27" s="1"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
@@ -3263,25 +3316,27 @@
       <c r="D28" s="1"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>138</v>
@@ -3289,12 +3344,12 @@
       <c r="D30" s="1"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>138</v>
@@ -3302,12 +3357,12 @@
       <c r="D31" s="1"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -3315,25 +3370,27 @@
       <c r="D32" s="1"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>138</v>
@@ -3341,12 +3398,12 @@
       <c r="D34" s="1"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -3354,12 +3411,12 @@
       <c r="D35" s="1"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>138</v>
@@ -3367,72 +3424,74 @@
       <c r="D36" s="1"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3504,7 @@
       <c r="D42" s="1"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3517,7 @@
       <c r="D43" s="1"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3471,7 +3530,7 @@
       <c r="D44" s="1"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3543,7 @@
       <c r="D45" s="1"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3497,7 +3556,7 @@
       <c r="D46" s="1"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3523,18 +3582,18 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.9296875" customWidth="1"/>
-    <col min="4" max="4" width="21.9296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="1" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3549,7 +3608,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3561,7 +3620,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3573,7 +3632,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3585,7 +3644,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3597,7 +3656,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3609,7 +3668,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3680,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3631,9 +3690,12 @@
       <c r="C8" t="s">
         <v>138</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3645,7 +3707,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3719,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3669,7 +3731,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3681,7 +3743,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3691,9 +3753,12 @@
       <c r="C13" t="s">
         <v>138</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3705,7 +3770,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3715,9 +3780,12 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3729,7 +3797,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3741,7 +3809,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -3753,7 +3821,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3765,7 +3833,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3777,7 +3845,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3789,7 +3857,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3801,7 +3869,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3813,7 +3881,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3823,9 +3891,12 @@
       <c r="C24" t="s">
         <v>138</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3837,7 +3908,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3849,7 +3920,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3861,7 +3932,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3873,7 +3944,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3885,7 +3956,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +3968,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3909,7 +3980,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3921,7 +3992,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3933,7 +4004,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -3945,7 +4016,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +4028,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3969,7 +4040,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -3981,7 +4052,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -3993,7 +4064,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4005,7 +4076,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -4017,7 +4088,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4029,7 +4100,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4112,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4053,7 +4124,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4065,7 +4136,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4077,7 +4148,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4089,7 +4160,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4101,7 +4172,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4113,7 +4184,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -4125,7 +4196,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -4137,7 +4208,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4149,7 +4220,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4161,7 +4232,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4173,7 +4244,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4198,18 +4269,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.9296875" customWidth="1"/>
-    <col min="4" max="4" width="21.9296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="1" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4224,7 +4295,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4236,7 +4307,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4248,7 +4319,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4260,7 +4331,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4272,7 +4343,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4284,7 +4355,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4296,7 +4367,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4308,7 +4379,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -4320,7 +4391,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -4332,7 +4403,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4342,9 +4413,12 @@
       <c r="C11" t="s">
         <v>137</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4356,7 +4430,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -4368,7 +4442,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4378,9 +4452,12 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4390,9 +4467,12 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4404,7 +4484,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4416,7 +4496,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4426,9 +4506,12 @@
       <c r="C18" t="s">
         <v>138</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4438,9 +4521,12 @@
       <c r="C19" t="s">
         <v>138</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4452,7 +4538,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4464,7 +4550,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4476,7 +4562,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4501,18 +4587,18 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D49"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.9296875" customWidth="1"/>
-    <col min="4" max="4" width="21.9296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="1" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4527,7 +4613,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4539,7 +4625,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4551,7 +4637,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4563,7 +4649,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4575,7 +4661,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4587,7 +4673,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4597,9 +4683,12 @@
       <c r="C7" t="s">
         <v>138</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4609,9 +4698,12 @@
       <c r="C8" t="s">
         <v>138</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4621,9 +4713,12 @@
       <c r="C9" t="s">
         <v>138</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4633,9 +4728,12 @@
       <c r="C10" t="s">
         <v>138</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4647,7 +4745,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4659,7 +4757,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4671,7 +4769,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4683,7 +4781,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4695,7 +4793,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4707,7 +4805,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -4719,7 +4817,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -4731,7 +4829,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -4743,7 +4841,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -4755,7 +4853,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4767,7 +4865,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4779,7 +4877,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4789,9 +4887,12 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4801,9 +4902,12 @@
       <c r="C24" t="s">
         <v>138</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4815,7 +4919,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4827,7 +4931,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4839,7 +4943,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4851,7 +4955,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4863,7 +4967,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4875,7 +4979,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4887,7 +4991,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4899,7 +5003,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4911,7 +5015,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4923,7 +5027,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4935,7 +5039,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -4947,7 +5051,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4959,7 +5063,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4971,7 +5075,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -4983,7 +5087,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4995,7 +5099,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5007,7 +5111,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5019,7 +5123,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -5031,7 +5135,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -5043,7 +5147,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -5055,7 +5159,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -5067,7 +5171,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -5079,7 +5183,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -5091,7 +5195,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5CE396-F550-481C-A05E-878D63DB48BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B005C-2394-4E1F-B556-681283BFB945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="145">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -521,9 +521,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -531,6 +528,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,7 +582,7 @@
     <tableColumn id="3" xr3:uid="{C942E722-BCB0-4010-8BDE-D8A787CFEDA6}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{42500586-031D-4E03-B4EC-9F8BE73BAC6E}" name="Type"/>
     <tableColumn id="1" xr3:uid="{8E8DC957-0548-4003-84F9-94F2E441B481}" name="Level"/>
-    <tableColumn id="7" xr3:uid="{80D4239F-F177-4074-A4F4-D19D0A839103}" name="Books needed" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{80D4239F-F177-4074-A4F4-D19D0A839103}" name="Books needed" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(A2,danger[],1,FALSE)),0,IF(VLOOKUP(A2,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,brenda[],1,FALSE)),0,IF(VLOOKUP(A2,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,madora[],1,FALSE)),0,IF(VLOOKUP(A2,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A2,jehan[],1,FALSE)),0,IF(VLOOKUP(A2,jehan[],4,FALSE)="",1,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -631,7 +631,7 @@
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
     <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -654,7 +654,7 @@
     <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
     <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,7 +676,7 @@
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
     <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D117">
         <f>IF(ISNA(VLOOKUP(A117,danger[],1,FALSE)),0,IF(VLOOKUP(A117,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,brenda[],1,FALSE)),0,IF(VLOOKUP(A117,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,madora[],1,FALSE)),0,IF(VLOOKUP(A117,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,jehan[],1,FALSE)),0,IF(VLOOKUP(A117,jehan[],4,FALSE)="",1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3475,9 @@
       <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B005C-2394-4E1F-B556-681283BFB945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063BB49-78CB-46C7-9559-CFCBAD160917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11190" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="145">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -561,9 +561,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BCEB27D-6E9F-4ECF-8BC4-D967EF319771}" name="skills" displayName="skills" ref="A1:D129" totalsRowShown="0">
   <autoFilter ref="A1:D129" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Man-At-Arms"/>
+        <filter val="Novice"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -982,7 +982,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2142,10 +2142,10 @@
       </c>
       <c r="D77">
         <f>IF(ISNA(VLOOKUP(A77,danger[],1,FALSE)),0,IF(VLOOKUP(A77,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,brenda[],1,FALSE)),0,IF(VLOOKUP(A77,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,madora[],1,FALSE)),0,IF(VLOOKUP(A77,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,jehan[],1,FALSE)),0,IF(VLOOKUP(A77,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2157,10 +2157,10 @@
       </c>
       <c r="D78">
         <f>IF(ISNA(VLOOKUP(A78,danger[],1,FALSE)),0,IF(VLOOKUP(A78,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,brenda[],1,FALSE)),0,IF(VLOOKUP(A78,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,madora[],1,FALSE)),0,IF(VLOOKUP(A78,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A78,jehan[],1,FALSE)),0,IF(VLOOKUP(A78,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2172,10 +2172,10 @@
       </c>
       <c r="D79">
         <f>IF(ISNA(VLOOKUP(A79,danger[],1,FALSE)),0,IF(VLOOKUP(A79,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,brenda[],1,FALSE)),0,IF(VLOOKUP(A79,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,madora[],1,FALSE)),0,IF(VLOOKUP(A79,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,jehan[],1,FALSE)),0,IF(VLOOKUP(A79,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2202,10 +2202,10 @@
       </c>
       <c r="D81">
         <f>IF(ISNA(VLOOKUP(A81,danger[],1,FALSE)),0,IF(VLOOKUP(A81,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,brenda[],1,FALSE)),0,IF(VLOOKUP(A81,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,madora[],1,FALSE)),0,IF(VLOOKUP(A81,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,jehan[],1,FALSE)),0,IF(VLOOKUP(A81,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2292,10 +2292,10 @@
       </c>
       <c r="D87">
         <f>IF(ISNA(VLOOKUP(A87,danger[],1,FALSE)),0,IF(VLOOKUP(A87,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,brenda[],1,FALSE)),0,IF(VLOOKUP(A87,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,madora[],1,FALSE)),0,IF(VLOOKUP(A87,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A87,jehan[],1,FALSE)),0,IF(VLOOKUP(A87,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -2367,10 +2367,10 @@
       </c>
       <c r="D92">
         <f>IF(ISNA(VLOOKUP(A92,danger[],1,FALSE)),0,IF(VLOOKUP(A92,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,brenda[],1,FALSE)),0,IF(VLOOKUP(A92,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,madora[],1,FALSE)),0,IF(VLOOKUP(A92,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A92,jehan[],1,FALSE)),0,IF(VLOOKUP(A92,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2457,10 +2457,10 @@
       </c>
       <c r="D98">
         <f>IF(ISNA(VLOOKUP(A98,danger[],1,FALSE)),0,IF(VLOOKUP(A98,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,brenda[],1,FALSE)),0,IF(VLOOKUP(A98,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,madora[],1,FALSE)),0,IF(VLOOKUP(A98,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,jehan[],1,FALSE)),0,IF(VLOOKUP(A98,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D99">
         <f>IF(ISNA(VLOOKUP(A99,danger[],1,FALSE)),0,IF(VLOOKUP(A99,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,brenda[],1,FALSE)),0,IF(VLOOKUP(A99,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,madora[],1,FALSE)),0,IF(VLOOKUP(A99,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,jehan[],1,FALSE)),0,IF(VLOOKUP(A99,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D101">
         <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2938,7 +2938,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3184,7 @@
       <c r="D18" s="1"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3194,10 +3194,12 @@
       <c r="C19" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3207,7 +3209,9 @@
       <c r="C20" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3227,7 @@
       <c r="D21" s="1"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3233,7 +3237,9 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3283,7 @@
       <c r="D25" s="1"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3287,7 +3293,9 @@
       <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,21 +3589,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3608,9 +3615,8 @@
       <c r="D1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3620,9 +3626,8 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3632,9 +3637,8 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3644,9 +3648,8 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3656,9 +3659,8 @@
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3668,9 +3670,8 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3680,9 +3681,11 @@
       <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3695,9 +3698,8 @@
       <c r="D8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3707,9 +3709,8 @@
       <c r="C9" t="s">
         <v>138</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3719,9 +3720,8 @@
       <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3731,9 +3731,11 @@
       <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3743,9 +3745,8 @@
       <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3758,9 +3759,8 @@
       <c r="D13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3770,9 +3770,8 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3785,9 +3784,8 @@
       <c r="D15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3797,9 +3795,8 @@
       <c r="C16" t="s">
         <v>137</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3809,9 +3806,8 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -3821,9 +3817,8 @@
       <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3833,9 +3828,8 @@
       <c r="C19" t="s">
         <v>137</v>
       </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3845,9 +3839,8 @@
       <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3857,9 +3850,8 @@
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3869,9 +3861,11 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3881,9 +3875,11 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3896,9 +3892,8 @@
       <c r="D24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3908,9 +3903,8 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3920,9 +3914,8 @@
       <c r="C26" t="s">
         <v>137</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3932,9 +3925,8 @@
       <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3944,9 +3936,8 @@
       <c r="C28" t="s">
         <v>137</v>
       </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3956,9 +3947,8 @@
       <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3968,9 +3958,8 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3980,9 +3969,8 @@
       <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3992,9 +3980,8 @@
       <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4004,9 +3991,8 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4016,9 +4002,8 @@
       <c r="C34" t="s">
         <v>138</v>
       </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4028,9 +4013,8 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4040,9 +4024,8 @@
       <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4052,9 +4035,8 @@
       <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -4064,9 +4046,8 @@
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4076,9 +4057,8 @@
       <c r="C39" t="s">
         <v>137</v>
       </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -4088,9 +4068,8 @@
       <c r="C40" t="s">
         <v>137</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4100,9 +4079,8 @@
       <c r="C41" t="s">
         <v>137</v>
       </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4112,9 +4090,8 @@
       <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4124,9 +4101,8 @@
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4136,9 +4112,8 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4148,9 +4123,8 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4160,9 +4134,8 @@
       <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4172,9 +4145,8 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4184,9 +4156,8 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -4196,9 +4167,8 @@
       <c r="C49" t="s">
         <v>137</v>
       </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -4208,9 +4178,8 @@
       <c r="C50" t="s">
         <v>137</v>
       </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4220,9 +4189,8 @@
       <c r="C51" t="s">
         <v>138</v>
       </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4232,9 +4200,8 @@
       <c r="C52" t="s">
         <v>138</v>
       </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4244,9 +4211,8 @@
       <c r="C53" t="s">
         <v>138</v>
       </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4256,7 +4222,6 @@
       <c r="C54" t="s">
         <v>138</v>
       </c>
-      <c r="E54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,7 +4236,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +4554,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,7 +4874,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4918,6 +4883,9 @@
       </c>
       <c r="C25" t="s">
         <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E25"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063BB49-78CB-46C7-9559-CFCBAD160917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B81FD1-A737-482C-811E-E4E1B8EDF14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11190" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>have book</t>
   </si>
 </sst>
 </file>
@@ -561,9 +564,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BCEB27D-6E9F-4ECF-8BC4-D967EF319771}" name="skills" displayName="skills" ref="A1:D129" totalsRowShown="0">
   <autoFilter ref="A1:D129" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Novice"/>
+        <filter val="Geomancer"/>
+        <filter val="Man-At-Arms"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -575,7 +579,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:D129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:D107">
     <sortCondition ref="B1:B129"/>
   </sortState>
   <tableColumns count="4">
@@ -595,6 +599,7 @@
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="2">
       <filters>
+        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -603,7 +608,7 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
-    <sortCondition ref="C1:C47"/>
+    <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{E83FD4F5-EF8B-45F4-B51C-8A650BAD7CC7}" name="Skill"/>
@@ -620,6 +625,7 @@
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="2">
       <filters>
+        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -627,6 +633,9 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+    <sortCondition ref="B1:B54"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
@@ -665,6 +674,7 @@
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="2">
       <filters>
+        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -672,6 +682,9 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="B1:B49"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
@@ -982,7 +995,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1360,7 @@
       </c>
       <c r="D24">
         <f>IF(ISNA(VLOOKUP(A24,danger[],1,FALSE)),0,IF(VLOOKUP(A24,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,brenda[],1,FALSE)),0,IF(VLOOKUP(A24,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,madora[],1,FALSE)),0,IF(VLOOKUP(A24,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A24,jehan[],1,FALSE)),0,IF(VLOOKUP(A24,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1695,19 +1708,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48">
         <f>IF(ISNA(VLOOKUP(A48,danger[],1,FALSE)),0,IF(VLOOKUP(A48,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,brenda[],1,FALSE)),0,IF(VLOOKUP(A48,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,madora[],1,FALSE)),0,IF(VLOOKUP(A48,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,jehan[],1,FALSE)),0,IF(VLOOKUP(A48,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1725,45 +1738,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <f>IF(ISNA(VLOOKUP(A50,danger[],1,FALSE)),0,IF(VLOOKUP(A50,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,brenda[],1,FALSE)),0,IF(VLOOKUP(A50,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,madora[],1,FALSE)),0,IF(VLOOKUP(A50,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,jehan[],1,FALSE)),0,IF(VLOOKUP(A50,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <f>IF(ISNA(VLOOKUP(A51,danger[],1,FALSE)),0,IF(VLOOKUP(A51,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,brenda[],1,FALSE)),0,IF(VLOOKUP(A51,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,madora[],1,FALSE)),0,IF(VLOOKUP(A51,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,jehan[],1,FALSE)),0,IF(VLOOKUP(A51,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52">
         <f>IF(ISNA(VLOOKUP(A52,danger[],1,FALSE)),0,IF(VLOOKUP(A52,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,brenda[],1,FALSE)),0,IF(VLOOKUP(A52,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,madora[],1,FALSE)),0,IF(VLOOKUP(A52,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,jehan[],1,FALSE)),0,IF(VLOOKUP(A52,jehan[],4,FALSE)="",1,0))</f>
@@ -2040,34 +2053,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D71">
         <f>IF(ISNA(VLOOKUP(A71,danger[],1,FALSE)),0,IF(VLOOKUP(A71,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,brenda[],1,FALSE)),0,IF(VLOOKUP(A71,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,madora[],1,FALSE)),0,IF(VLOOKUP(A71,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,jehan[],1,FALSE)),0,IF(VLOOKUP(A71,jehan[],4,FALSE)="",1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D72">
         <f>IF(ISNA(VLOOKUP(A72,danger[],1,FALSE)),0,IF(VLOOKUP(A72,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,brenda[],1,FALSE)),0,IF(VLOOKUP(A72,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,madora[],1,FALSE)),0,IF(VLOOKUP(A72,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A72,jehan[],1,FALSE)),0,IF(VLOOKUP(A72,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2142,10 +2155,10 @@
       </c>
       <c r="D77">
         <f>IF(ISNA(VLOOKUP(A77,danger[],1,FALSE)),0,IF(VLOOKUP(A77,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,brenda[],1,FALSE)),0,IF(VLOOKUP(A77,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,madora[],1,FALSE)),0,IF(VLOOKUP(A77,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A77,jehan[],1,FALSE)),0,IF(VLOOKUP(A77,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2175,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2202,10 +2215,10 @@
       </c>
       <c r="D81">
         <f>IF(ISNA(VLOOKUP(A81,danger[],1,FALSE)),0,IF(VLOOKUP(A81,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,brenda[],1,FALSE)),0,IF(VLOOKUP(A81,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,madora[],1,FALSE)),0,IF(VLOOKUP(A81,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,jehan[],1,FALSE)),0,IF(VLOOKUP(A81,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2217,7 +2230,7 @@
       </c>
       <c r="D82">
         <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2262,7 +2275,7 @@
       </c>
       <c r="D85">
         <f>IF(ISNA(VLOOKUP(A85,danger[],1,FALSE)),0,IF(VLOOKUP(A85,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,brenda[],1,FALSE)),0,IF(VLOOKUP(A85,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,madora[],1,FALSE)),0,IF(VLOOKUP(A85,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A85,jehan[],1,FALSE)),0,IF(VLOOKUP(A85,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2307,7 +2320,7 @@
       </c>
       <c r="D88">
         <f>IF(ISNA(VLOOKUP(A88,danger[],1,FALSE)),0,IF(VLOOKUP(A88,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,brenda[],1,FALSE)),0,IF(VLOOKUP(A88,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,madora[],1,FALSE)),0,IF(VLOOKUP(A88,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A88,jehan[],1,FALSE)),0,IF(VLOOKUP(A88,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2340,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -2372,17 +2385,17 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
       </c>
       <c r="D93">
         <f>IF(ISNA(VLOOKUP(A93,danger[],1,FALSE)),0,IF(VLOOKUP(A93,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,brenda[],1,FALSE)),0,IF(VLOOKUP(A93,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,madora[],1,FALSE)),0,IF(VLOOKUP(A93,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,jehan[],1,FALSE)),0,IF(VLOOKUP(A93,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2402,35 +2415,35 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>138</v>
       </c>
       <c r="D95">
         <f>IF(ISNA(VLOOKUP(A95,danger[],1,FALSE)),0,IF(VLOOKUP(A95,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,brenda[],1,FALSE)),0,IF(VLOOKUP(A95,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,madora[],1,FALSE)),0,IF(VLOOKUP(A95,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,jehan[],1,FALSE)),0,IF(VLOOKUP(A95,jehan[],4,FALSE)="",1,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D96">
         <f>IF(ISNA(VLOOKUP(A96,danger[],1,FALSE)),0,IF(VLOOKUP(A96,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,brenda[],1,FALSE)),0,IF(VLOOKUP(A96,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,madora[],1,FALSE)),0,IF(VLOOKUP(A96,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,jehan[],1,FALSE)),0,IF(VLOOKUP(A96,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2442,10 +2455,10 @@
       </c>
       <c r="D97">
         <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2457,10 +2470,10 @@
       </c>
       <c r="D98">
         <f>IF(ISNA(VLOOKUP(A98,danger[],1,FALSE)),0,IF(VLOOKUP(A98,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,brenda[],1,FALSE)),0,IF(VLOOKUP(A98,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,madora[],1,FALSE)),0,IF(VLOOKUP(A98,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,jehan[],1,FALSE)),0,IF(VLOOKUP(A98,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2502,12 +2515,12 @@
       </c>
       <c r="D101">
         <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2517,12 +2530,12 @@
       </c>
       <c r="D102">
         <f>IF(ISNA(VLOOKUP(A102,danger[],1,FALSE)),0,IF(VLOOKUP(A102,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,brenda[],1,FALSE)),0,IF(VLOOKUP(A102,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,madora[],1,FALSE)),0,IF(VLOOKUP(A102,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,jehan[],1,FALSE)),0,IF(VLOOKUP(A102,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2532,18 +2545,18 @@
       </c>
       <c r="D103">
         <f>IF(ISNA(VLOOKUP(A103,danger[],1,FALSE)),0,IF(VLOOKUP(A103,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,brenda[],1,FALSE)),0,IF(VLOOKUP(A103,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,madora[],1,FALSE)),0,IF(VLOOKUP(A103,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,jehan[],1,FALSE)),0,IF(VLOOKUP(A103,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104">
         <f>IF(ISNA(VLOOKUP(A104,danger[],1,FALSE)),0,IF(VLOOKUP(A104,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,brenda[],1,FALSE)),0,IF(VLOOKUP(A104,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,madora[],1,FALSE)),0,IF(VLOOKUP(A104,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,jehan[],1,FALSE)),0,IF(VLOOKUP(A104,jehan[],4,FALSE)="",1,0))</f>
@@ -2552,50 +2565,50 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D105">
         <f>IF(ISNA(VLOOKUP(A105,danger[],1,FALSE)),0,IF(VLOOKUP(A105,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,brenda[],1,FALSE)),0,IF(VLOOKUP(A105,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,madora[],1,FALSE)),0,IF(VLOOKUP(A105,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,jehan[],1,FALSE)),0,IF(VLOOKUP(A105,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106">
         <f>IF(ISNA(VLOOKUP(A106,danger[],1,FALSE)),0,IF(VLOOKUP(A106,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,brenda[],1,FALSE)),0,IF(VLOOKUP(A106,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,madora[],1,FALSE)),0,IF(VLOOKUP(A106,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,jehan[],1,FALSE)),0,IF(VLOOKUP(A106,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107">
         <f>IF(ISNA(VLOOKUP(A107,danger[],1,FALSE)),0,IF(VLOOKUP(A107,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,brenda[],1,FALSE)),0,IF(VLOOKUP(A107,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,madora[],1,FALSE)),0,IF(VLOOKUP(A107,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,jehan[],1,FALSE)),0,IF(VLOOKUP(A107,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -2685,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -2700,7 +2713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2715,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2727,10 +2740,10 @@
       </c>
       <c r="D116">
         <f>IF(ISNA(VLOOKUP(A116,danger[],1,FALSE)),0,IF(VLOOKUP(A116,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,brenda[],1,FALSE)),0,IF(VLOOKUP(A116,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,madora[],1,FALSE)),0,IF(VLOOKUP(A116,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,jehan[],1,FALSE)),0,IF(VLOOKUP(A116,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -2742,7 +2755,7 @@
       </c>
       <c r="D117">
         <f>IF(ISNA(VLOOKUP(A117,danger[],1,FALSE)),0,IF(VLOOKUP(A117,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,brenda[],1,FALSE)),0,IF(VLOOKUP(A117,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,madora[],1,FALSE)),0,IF(VLOOKUP(A117,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,jehan[],1,FALSE)),0,IF(VLOOKUP(A117,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2760,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2772,10 +2785,10 @@
       </c>
       <c r="D119">
         <f>IF(ISNA(VLOOKUP(A119,danger[],1,FALSE)),0,IF(VLOOKUP(A119,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,brenda[],1,FALSE)),0,IF(VLOOKUP(A119,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,madora[],1,FALSE)),0,IF(VLOOKUP(A119,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,jehan[],1,FALSE)),0,IF(VLOOKUP(A119,jehan[],4,FALSE)="",1,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2787,10 +2800,10 @@
       </c>
       <c r="D120">
         <f>IF(ISNA(VLOOKUP(A120,danger[],1,FALSE)),0,IF(VLOOKUP(A120,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,brenda[],1,FALSE)),0,IF(VLOOKUP(A120,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,madora[],1,FALSE)),0,IF(VLOOKUP(A120,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,jehan[],1,FALSE)),0,IF(VLOOKUP(A120,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -2817,10 +2830,10 @@
       </c>
       <c r="D122">
         <f>IF(ISNA(VLOOKUP(A122,danger[],1,FALSE)),0,IF(VLOOKUP(A122,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,brenda[],1,FALSE)),0,IF(VLOOKUP(A122,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,madora[],1,FALSE)),0,IF(VLOOKUP(A122,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,jehan[],1,FALSE)),0,IF(VLOOKUP(A122,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2835,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2850,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2892,10 +2905,10 @@
       </c>
       <c r="D127">
         <f>IF(ISNA(VLOOKUP(A127,danger[],1,FALSE)),0,IF(VLOOKUP(A127,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,brenda[],1,FALSE)),0,IF(VLOOKUP(A127,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,madora[],1,FALSE)),0,IF(VLOOKUP(A127,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,jehan[],1,FALSE)),0,IF(VLOOKUP(A127,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -2910,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2937,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2976,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -2986,10 +2999,12 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -3002,7 +3017,7 @@
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3015,48 +3030,48 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3067,12 +3082,12 @@
       <c r="D9" s="1"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>137</v>
@@ -3080,12 +3095,12 @@
       <c r="D10" s="1"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -3093,12 +3108,12 @@
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -3106,15 +3121,15 @@
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13"/>
@@ -3171,7 +3186,7 @@
       <c r="D17" s="1"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3196,9 @@
       <c r="C18" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3214,7 +3231,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3224,7 +3241,9 @@
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3242,7 +3261,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3252,7 +3271,9 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3272,10 +3293,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>138</v>
@@ -3300,10 +3321,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>138</v>
@@ -3313,10 +3334,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
@@ -3341,10 +3362,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>138</v>
@@ -3352,7 +3373,7 @@
       <c r="D30" s="1"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3362,15 +3383,17 @@
       <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -3393,7 +3416,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3403,57 +3426,59 @@
       <c r="C34" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38"/>
@@ -3488,7 +3513,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3523,9 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3643,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3627,7 +3654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3638,20 +3665,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -3701,7 +3728,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -3712,13 +3739,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3785,42 +3812,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -3842,7 +3869,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -3895,16 +3922,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3915,29 +3942,29 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3947,8 +3974,11 @@
       <c r="C29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3958,10 +3988,13 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -3972,16 +4005,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3991,19 +4024,22 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4014,7 +4050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4025,7 +4061,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4036,20 +4072,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -4058,9 +4094,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -4069,9 +4105,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -4080,18 +4116,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4101,8 +4137,11 @@
       <c r="C43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4112,8 +4151,11 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4134,8 +4176,11 @@
       <c r="C46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4145,8 +4190,11 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4157,20 +4205,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -4179,9 +4227,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -4190,18 +4238,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4211,8 +4259,11 @@
       <c r="C53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4236,7 +4287,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4385,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4343,6 +4394,9 @@
       </c>
       <c r="C8" t="s">
         <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E8"/>
     </row>
@@ -4553,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4634,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4592,7 +4646,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4604,7 +4658,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4616,7 +4670,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4700,7 +4754,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4710,9 +4764,12 @@
       <c r="C11" t="s">
         <v>138</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4721,6 +4778,9 @@
       </c>
       <c r="C12" t="s">
         <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E12"/>
     </row>
@@ -4760,7 +4820,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4772,33 +4832,33 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -4820,7 +4880,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4830,17 +4890,20 @@
       <c r="C21" t="s">
         <v>138</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22"/>
     </row>
@@ -4961,21 +5024,21 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -4985,9 +5048,9 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -4997,9 +5060,9 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -5023,13 +5086,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37"/>
     </row>
@@ -5105,21 +5168,21 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -5131,7 +5194,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -5143,7 +5206,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -5155,13 +5218,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B81FD1-A737-482C-811E-E4E1B8EDF14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92DB99-C6F2-4ABB-B87D-96F97DFBFD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -597,6 +597,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Witchcraft"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
@@ -623,18 +628,12 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-        <filter val="Novice"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
-    <sortCondition ref="B1:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:D48">
+    <sortCondition ref="C1:C54"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
@@ -649,6 +648,12 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
   <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Aerotheurge"/>
+        <filter val="Scoundrel"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
@@ -672,9 +677,13 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Witchcraft"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -1480,7 +1489,7 @@
       </c>
       <c r="D32">
         <f>IF(ISNA(VLOOKUP(A32,danger[],1,FALSE)),0,IF(VLOOKUP(A32,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,brenda[],1,FALSE)),0,IF(VLOOKUP(A32,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,madora[],1,FALSE)),0,IF(VLOOKUP(A32,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,jehan[],1,FALSE)),0,IF(VLOOKUP(A32,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1720,7 +1729,7 @@
       </c>
       <c r="D48">
         <f>IF(ISNA(VLOOKUP(A48,danger[],1,FALSE)),0,IF(VLOOKUP(A48,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,brenda[],1,FALSE)),0,IF(VLOOKUP(A48,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,madora[],1,FALSE)),0,IF(VLOOKUP(A48,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A48,jehan[],1,FALSE)),0,IF(VLOOKUP(A48,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1759,7 @@
       </c>
       <c r="D50">
         <f>IF(ISNA(VLOOKUP(A50,danger[],1,FALSE)),0,IF(VLOOKUP(A50,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,brenda[],1,FALSE)),0,IF(VLOOKUP(A50,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,madora[],1,FALSE)),0,IF(VLOOKUP(A50,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,jehan[],1,FALSE)),0,IF(VLOOKUP(A50,jehan[],4,FALSE)="",1,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1774,7 @@
       </c>
       <c r="D51">
         <f>IF(ISNA(VLOOKUP(A51,danger[],1,FALSE)),0,IF(VLOOKUP(A51,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,brenda[],1,FALSE)),0,IF(VLOOKUP(A51,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,madora[],1,FALSE)),0,IF(VLOOKUP(A51,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A51,jehan[],1,FALSE)),0,IF(VLOOKUP(A51,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,7 +1789,7 @@
       </c>
       <c r="D52">
         <f>IF(ISNA(VLOOKUP(A52,danger[],1,FALSE)),0,IF(VLOOKUP(A52,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,brenda[],1,FALSE)),0,IF(VLOOKUP(A52,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,madora[],1,FALSE)),0,IF(VLOOKUP(A52,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A52,jehan[],1,FALSE)),0,IF(VLOOKUP(A52,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1819,7 @@
       </c>
       <c r="D54">
         <f>IF(ISNA(VLOOKUP(A54,danger[],1,FALSE)),0,IF(VLOOKUP(A54,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,brenda[],1,FALSE)),0,IF(VLOOKUP(A54,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,madora[],1,FALSE)),0,IF(VLOOKUP(A54,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,jehan[],1,FALSE)),0,IF(VLOOKUP(A54,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2539,7 @@
       </c>
       <c r="D102">
         <f>IF(ISNA(VLOOKUP(A102,danger[],1,FALSE)),0,IF(VLOOKUP(A102,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,brenda[],1,FALSE)),0,IF(VLOOKUP(A102,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,madora[],1,FALSE)),0,IF(VLOOKUP(A102,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A102,jehan[],1,FALSE)),0,IF(VLOOKUP(A102,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,7 +2554,7 @@
       </c>
       <c r="D103">
         <f>IF(ISNA(VLOOKUP(A103,danger[],1,FALSE)),0,IF(VLOOKUP(A103,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,brenda[],1,FALSE)),0,IF(VLOOKUP(A103,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,madora[],1,FALSE)),0,IF(VLOOKUP(A103,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,jehan[],1,FALSE)),0,IF(VLOOKUP(A103,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,7 +2629,7 @@
       </c>
       <c r="D108">
         <f>IF(ISNA(VLOOKUP(A108,danger[],1,FALSE)),0,IF(VLOOKUP(A108,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,brenda[],1,FALSE)),0,IF(VLOOKUP(A108,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,madora[],1,FALSE)),0,IF(VLOOKUP(A108,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,jehan[],1,FALSE)),0,IF(VLOOKUP(A108,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2635,7 +2644,7 @@
       </c>
       <c r="D109">
         <f>IF(ISNA(VLOOKUP(A109,danger[],1,FALSE)),0,IF(VLOOKUP(A109,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,brenda[],1,FALSE)),0,IF(VLOOKUP(A109,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,madora[],1,FALSE)),0,IF(VLOOKUP(A109,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,jehan[],1,FALSE)),0,IF(VLOOKUP(A109,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2665,7 +2674,7 @@
       </c>
       <c r="D111">
         <f>IF(ISNA(VLOOKUP(A111,danger[],1,FALSE)),0,IF(VLOOKUP(A111,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,brenda[],1,FALSE)),0,IF(VLOOKUP(A111,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,madora[],1,FALSE)),0,IF(VLOOKUP(A111,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A111,jehan[],1,FALSE)),0,IF(VLOOKUP(A111,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2689,7 @@
       </c>
       <c r="D112">
         <f>IF(ISNA(VLOOKUP(A112,danger[],1,FALSE)),0,IF(VLOOKUP(A112,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,brenda[],1,FALSE)),0,IF(VLOOKUP(A112,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,madora[],1,FALSE)),0,IF(VLOOKUP(A112,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A112,jehan[],1,FALSE)),0,IF(VLOOKUP(A112,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2710,7 +2719,7 @@
       </c>
       <c r="D114">
         <f>IF(ISNA(VLOOKUP(A114,danger[],1,FALSE)),0,IF(VLOOKUP(A114,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,brenda[],1,FALSE)),0,IF(VLOOKUP(A114,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,madora[],1,FALSE)),0,IF(VLOOKUP(A114,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,jehan[],1,FALSE)),0,IF(VLOOKUP(A114,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2740,7 +2749,7 @@
       </c>
       <c r="D116">
         <f>IF(ISNA(VLOOKUP(A116,danger[],1,FALSE)),0,IF(VLOOKUP(A116,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,brenda[],1,FALSE)),0,IF(VLOOKUP(A116,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,madora[],1,FALSE)),0,IF(VLOOKUP(A116,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,jehan[],1,FALSE)),0,IF(VLOOKUP(A116,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2755,7 +2764,7 @@
       </c>
       <c r="D117">
         <f>IF(ISNA(VLOOKUP(A117,danger[],1,FALSE)),0,IF(VLOOKUP(A117,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,brenda[],1,FALSE)),0,IF(VLOOKUP(A117,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,madora[],1,FALSE)),0,IF(VLOOKUP(A117,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,jehan[],1,FALSE)),0,IF(VLOOKUP(A117,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2785,7 +2794,7 @@
       </c>
       <c r="D119">
         <f>IF(ISNA(VLOOKUP(A119,danger[],1,FALSE)),0,IF(VLOOKUP(A119,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,brenda[],1,FALSE)),0,IF(VLOOKUP(A119,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,madora[],1,FALSE)),0,IF(VLOOKUP(A119,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,jehan[],1,FALSE)),0,IF(VLOOKUP(A119,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2815,7 +2824,7 @@
       </c>
       <c r="D121">
         <f>IF(ISNA(VLOOKUP(A121,danger[],1,FALSE)),0,IF(VLOOKUP(A121,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,brenda[],1,FALSE)),0,IF(VLOOKUP(A121,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,madora[],1,FALSE)),0,IF(VLOOKUP(A121,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,jehan[],1,FALSE)),0,IF(VLOOKUP(A121,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2845,7 +2854,7 @@
       </c>
       <c r="D123">
         <f>IF(ISNA(VLOOKUP(A123,danger[],1,FALSE)),0,IF(VLOOKUP(A123,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,brenda[],1,FALSE)),0,IF(VLOOKUP(A123,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,madora[],1,FALSE)),0,IF(VLOOKUP(A123,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,jehan[],1,FALSE)),0,IF(VLOOKUP(A123,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2860,7 +2869,7 @@
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2875,7 +2884,7 @@
       </c>
       <c r="D125">
         <f>IF(ISNA(VLOOKUP(A125,danger[],1,FALSE)),0,IF(VLOOKUP(A125,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,brenda[],1,FALSE)),0,IF(VLOOKUP(A125,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,madora[],1,FALSE)),0,IF(VLOOKUP(A125,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A125,jehan[],1,FALSE)),0,IF(VLOOKUP(A125,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2914,7 @@
       </c>
       <c r="D127">
         <f>IF(ISNA(VLOOKUP(A127,danger[],1,FALSE)),0,IF(VLOOKUP(A127,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,brenda[],1,FALSE)),0,IF(VLOOKUP(A127,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,madora[],1,FALSE)),0,IF(VLOOKUP(A127,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,jehan[],1,FALSE)),0,IF(VLOOKUP(A127,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2935,7 +2944,7 @@
       </c>
       <c r="D129">
         <f>IF(ISNA(VLOOKUP(A129,danger[],1,FALSE)),0,IF(VLOOKUP(A129,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,brenda[],1,FALSE)),0,IF(VLOOKUP(A129,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,madora[],1,FALSE)),0,IF(VLOOKUP(A129,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,jehan[],1,FALSE)),0,IF(VLOOKUP(A129,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2960,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2985,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -3017,7 +3026,7 @@
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3030,7 +3039,7 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3043,7 +3052,7 @@
       <c r="D6" s="1"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3053,10 +3062,12 @@
       <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3069,7 +3080,7 @@
       <c r="D8" s="1"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3082,7 +3093,7 @@
       <c r="D9" s="1"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3095,7 +3106,7 @@
       <c r="D10" s="1"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -3108,7 +3119,7 @@
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3121,7 +3132,7 @@
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3291,7 +3302,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3319,7 +3330,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3329,10 +3340,12 @@
       <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3342,7 +3355,9 @@
       <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3360,7 +3375,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3370,7 +3385,9 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3405,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3554,7 +3571,7 @@
       <c r="D43" s="1"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3564,10 +3581,12 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3577,7 +3596,9 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,7 +3708,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3787,7 +3808,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3796,6 +3817,9 @@
       </c>
       <c r="C14" t="s">
         <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4049,8 +4073,11 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4059,6 +4086,9 @@
       </c>
       <c r="C36" t="s">
         <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,20 +4102,23 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -4096,7 +4129,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -4107,7 +4140,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -4118,13 +4151,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4194,7 +4227,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4204,8 +4237,11 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4214,6 +4250,9 @@
       </c>
       <c r="C49" t="s">
         <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,7 +4302,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4272,6 +4311,9 @@
       </c>
       <c r="C54" t="s">
         <v>138</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4329,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,7 +4391,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4359,9 +4401,12 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4371,9 +4416,12 @@
       <c r="C6" t="s">
         <v>138</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4382,6 +4430,9 @@
       </c>
       <c r="C7" t="s">
         <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E7"/>
     </row>
@@ -4400,7 +4451,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -4412,7 +4463,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -4493,7 +4544,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4505,7 +4556,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4608,7 +4659,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4685,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4697,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4658,7 +4709,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4670,7 +4721,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4784,7 +4835,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4794,9 +4845,12 @@
       <c r="C13" t="s">
         <v>138</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4806,9 +4860,12 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4818,9 +4875,12 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4832,7 +4892,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4844,7 +4904,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4854,9 +4914,12 @@
       <c r="C18" t="s">
         <v>137</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4895,7 +4958,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4952,7 +5015,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4962,9 +5025,12 @@
       <c r="C26" t="s">
         <v>138</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4974,9 +5040,12 @@
       <c r="C27" t="s">
         <v>138</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4986,9 +5055,12 @@
       <c r="C28" t="s">
         <v>138</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5000,7 +5072,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -5012,7 +5084,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5024,7 +5096,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -5036,7 +5108,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -5048,7 +5120,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -5060,7 +5132,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5084,7 +5156,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5096,7 +5168,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5106,9 +5178,12 @@
       <c r="C38" t="s">
         <v>138</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5120,7 +5195,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5130,9 +5205,12 @@
       <c r="C40" t="s">
         <v>138</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5144,7 +5222,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5154,9 +5232,12 @@
       <c r="C42" t="s">
         <v>138</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -5180,7 +5261,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5192,7 +5273,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -5201,6 +5282,9 @@
       </c>
       <c r="C46" t="s">
         <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E46"/>
     </row>
@@ -5216,7 +5300,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92DB99-C6F2-4ABB-B87D-96F97DFBFD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2372FD4-FC7B-4731-9D29-ABF4D9F02130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -599,6 +599,7 @@
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Hydrosophist"/>
         <filter val="Witchcraft"/>
       </filters>
     </filterColumn>
@@ -628,6 +629,16 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Scoundrel"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -650,14 +661,7 @@
   <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Aerotheurge"/>
         <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-        <filter val="Novice"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -677,13 +681,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Witchcraft"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D32">
         <f>IF(ISNA(VLOOKUP(A32,danger[],1,FALSE)),0,IF(VLOOKUP(A32,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,brenda[],1,FALSE)),0,IF(VLOOKUP(A32,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,madora[],1,FALSE)),0,IF(VLOOKUP(A32,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A32,jehan[],1,FALSE)),0,IF(VLOOKUP(A32,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D50">
         <f>IF(ISNA(VLOOKUP(A50,danger[],1,FALSE)),0,IF(VLOOKUP(A50,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,brenda[],1,FALSE)),0,IF(VLOOKUP(A50,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,madora[],1,FALSE)),0,IF(VLOOKUP(A50,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A50,jehan[],1,FALSE)),0,IF(VLOOKUP(A50,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D71">
         <f>IF(ISNA(VLOOKUP(A71,danger[],1,FALSE)),0,IF(VLOOKUP(A71,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,brenda[],1,FALSE)),0,IF(VLOOKUP(A71,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,madora[],1,FALSE)),0,IF(VLOOKUP(A71,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A71,jehan[],1,FALSE)),0,IF(VLOOKUP(A71,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D79">
         <f>IF(ISNA(VLOOKUP(A79,danger[],1,FALSE)),0,IF(VLOOKUP(A79,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,brenda[],1,FALSE)),0,IF(VLOOKUP(A79,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,madora[],1,FALSE)),0,IF(VLOOKUP(A79,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,jehan[],1,FALSE)),0,IF(VLOOKUP(A79,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D81">
         <f>IF(ISNA(VLOOKUP(A81,danger[],1,FALSE)),0,IF(VLOOKUP(A81,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,brenda[],1,FALSE)),0,IF(VLOOKUP(A81,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,madora[],1,FALSE)),0,IF(VLOOKUP(A81,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A81,jehan[],1,FALSE)),0,IF(VLOOKUP(A81,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D82">
         <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D93">
         <f>IF(ISNA(VLOOKUP(A93,danger[],1,FALSE)),0,IF(VLOOKUP(A93,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,brenda[],1,FALSE)),0,IF(VLOOKUP(A93,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,madora[],1,FALSE)),0,IF(VLOOKUP(A93,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,jehan[],1,FALSE)),0,IF(VLOOKUP(A93,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D95">
         <f>IF(ISNA(VLOOKUP(A95,danger[],1,FALSE)),0,IF(VLOOKUP(A95,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,brenda[],1,FALSE)),0,IF(VLOOKUP(A95,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,madora[],1,FALSE)),0,IF(VLOOKUP(A95,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,jehan[],1,FALSE)),0,IF(VLOOKUP(A95,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="D99">
         <f>IF(ISNA(VLOOKUP(A99,danger[],1,FALSE)),0,IF(VLOOKUP(A99,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,brenda[],1,FALSE)),0,IF(VLOOKUP(A99,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,madora[],1,FALSE)),0,IF(VLOOKUP(A99,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A99,jehan[],1,FALSE)),0,IF(VLOOKUP(A99,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D107">
         <f>IF(ISNA(VLOOKUP(A107,danger[],1,FALSE)),0,IF(VLOOKUP(A107,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,brenda[],1,FALSE)),0,IF(VLOOKUP(A107,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,madora[],1,FALSE)),0,IF(VLOOKUP(A107,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A107,jehan[],1,FALSE)),0,IF(VLOOKUP(A107,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D108">
         <f>IF(ISNA(VLOOKUP(A108,danger[],1,FALSE)),0,IF(VLOOKUP(A108,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,brenda[],1,FALSE)),0,IF(VLOOKUP(A108,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,madora[],1,FALSE)),0,IF(VLOOKUP(A108,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A108,jehan[],1,FALSE)),0,IF(VLOOKUP(A108,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="D109">
         <f>IF(ISNA(VLOOKUP(A109,danger[],1,FALSE)),0,IF(VLOOKUP(A109,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,brenda[],1,FALSE)),0,IF(VLOOKUP(A109,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,madora[],1,FALSE)),0,IF(VLOOKUP(A109,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A109,jehan[],1,FALSE)),0,IF(VLOOKUP(A109,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D114">
         <f>IF(ISNA(VLOOKUP(A114,danger[],1,FALSE)),0,IF(VLOOKUP(A114,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,brenda[],1,FALSE)),0,IF(VLOOKUP(A114,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,madora[],1,FALSE)),0,IF(VLOOKUP(A114,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,jehan[],1,FALSE)),0,IF(VLOOKUP(A114,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2959,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,10 +3077,12 @@
       <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3103,10 +3105,12 @@
       <c r="C10" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -3119,7 +3123,7 @@
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3132,7 +3136,7 @@
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3312,7 +3316,9 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3646,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,7 +3670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3965,8 +3971,11 @@
       <c r="C26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3976,8 +3985,11 @@
       <c r="C27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3986,6 +3998,9 @@
       </c>
       <c r="C28" t="s">
         <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4016,7 +4031,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4027,7 +4042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4052,7 +4067,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4061,6 +4076,9 @@
       </c>
       <c r="C34" t="s">
         <v>137</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4091,7 +4109,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4100,6 +4118,9 @@
       </c>
       <c r="C37" t="s">
         <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4149,7 +4170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4266,7 +4287,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -4329,7 +4350,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,7 +4376,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4365,9 +4386,12 @@
       <c r="C2" t="s">
         <v>138</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4377,9 +4401,12 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4388,6 +4415,9 @@
       </c>
       <c r="C4" t="s">
         <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E4"/>
     </row>
@@ -4658,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,7 +4715,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4697,7 +4727,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4709,7 +4739,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4721,7 +4751,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4880,7 +4910,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4892,7 +4922,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4919,7 +4949,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4958,7 +4988,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5070,6 +5100,9 @@
       <c r="C29" t="s">
         <v>138</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5082,9 +5115,12 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5096,7 +5132,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -5108,7 +5144,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -5120,7 +5156,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -5132,7 +5168,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5156,7 +5192,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5183,7 +5219,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5210,7 +5246,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5237,7 +5273,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -5261,7 +5297,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5300,7 +5336,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2372FD4-FC7B-4731-9D29-ABF4D9F02130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C976D48-DAAD-41D2-80BC-3B1743DB0C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -683,7 +683,6 @@
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -1084,7 +1083,7 @@
       </c>
       <c r="D5">
         <f>IF(ISNA(VLOOKUP(A5,danger[],1,FALSE)),0,IF(VLOOKUP(A5,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,brenda[],1,FALSE)),0,IF(VLOOKUP(A5,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,madora[],1,FALSE)),0,IF(VLOOKUP(A5,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,jehan[],1,FALSE)),0,IF(VLOOKUP(A5,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1204,7 +1203,7 @@
       </c>
       <c r="D13">
         <f>IF(ISNA(VLOOKUP(A13,danger[],1,FALSE)),0,IF(VLOOKUP(A13,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,brenda[],1,FALSE)),0,IF(VLOOKUP(A13,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,madora[],1,FALSE)),0,IF(VLOOKUP(A13,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,jehan[],1,FALSE)),0,IF(VLOOKUP(A13,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2479,7 +2478,7 @@
       </c>
       <c r="D98">
         <f>IF(ISNA(VLOOKUP(A98,danger[],1,FALSE)),0,IF(VLOOKUP(A98,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,brenda[],1,FALSE)),0,IF(VLOOKUP(A98,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,madora[],1,FALSE)),0,IF(VLOOKUP(A98,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A98,jehan[],1,FALSE)),0,IF(VLOOKUP(A98,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2959,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,7 +3644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -4689,7 +4688,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4715,7 +4714,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4725,9 +4724,12 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4737,9 +4739,12 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4751,7 +4756,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4910,7 +4915,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4922,7 +4927,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4931,6 +4936,9 @@
       </c>
       <c r="C17" t="s">
         <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E17"/>
     </row>
@@ -4949,7 +4957,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4988,7 +4996,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5144,7 +5152,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +5164,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -5168,7 +5176,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5192,7 +5200,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5297,7 +5305,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5336,7 +5344,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C976D48-DAAD-41D2-80BC-3B1743DB0C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3FD4D-E48C-452C-BA7B-2B4F1DD39B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -599,6 +599,7 @@
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Expert Marksman"/>
         <filter val="Hydrosophist"/>
         <filter val="Witchcraft"/>
       </filters>
@@ -664,6 +665,12 @@
         <filter val="Scoundrel"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
+        <filter val="Novice"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -681,8 +688,16 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hydrosophist"/>
+        <filter val="Scoundrel"/>
+        <filter val="Witchcraft"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="Adept"/>
         <filter val="Novice"/>
       </filters>
     </filterColumn>
@@ -2403,7 +2418,7 @@
       </c>
       <c r="D93">
         <f>IF(ISNA(VLOOKUP(A93,danger[],1,FALSE)),0,IF(VLOOKUP(A93,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,brenda[],1,FALSE)),0,IF(VLOOKUP(A93,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,madora[],1,FALSE)),0,IF(VLOOKUP(A93,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A93,jehan[],1,FALSE)),0,IF(VLOOKUP(A93,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2448,7 @@
       </c>
       <c r="D95">
         <f>IF(ISNA(VLOOKUP(A95,danger[],1,FALSE)),0,IF(VLOOKUP(A95,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,brenda[],1,FALSE)),0,IF(VLOOKUP(A95,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,madora[],1,FALSE)),0,IF(VLOOKUP(A95,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A95,jehan[],1,FALSE)),0,IF(VLOOKUP(A95,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2613,7 @@
       </c>
       <c r="D106">
         <f>IF(ISNA(VLOOKUP(A106,danger[],1,FALSE)),0,IF(VLOOKUP(A106,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,brenda[],1,FALSE)),0,IF(VLOOKUP(A106,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,madora[],1,FALSE)),0,IF(VLOOKUP(A106,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A106,jehan[],1,FALSE)),0,IF(VLOOKUP(A106,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2733,7 @@
       </c>
       <c r="D114">
         <f>IF(ISNA(VLOOKUP(A114,danger[],1,FALSE)),0,IF(VLOOKUP(A114,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,brenda[],1,FALSE)),0,IF(VLOOKUP(A114,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,madora[],1,FALSE)),0,IF(VLOOKUP(A114,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A114,jehan[],1,FALSE)),0,IF(VLOOKUP(A114,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2958,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2999,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3012,7 +3027,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -3025,7 +3040,7 @@
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3038,7 +3053,7 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3644,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,7 +4364,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,6 +4517,9 @@
       <c r="C10" t="s">
         <v>137</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4583,6 +4601,9 @@
       <c r="C16" t="s">
         <v>138</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4594,6 +4615,9 @@
       </c>
       <c r="C17" t="s">
         <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E17"/>
     </row>
@@ -4688,7 +4712,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4939,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4957,7 +4981,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4996,7 +5020,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5128,7 +5152,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5137,6 +5161,9 @@
       </c>
       <c r="C31" t="s">
         <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E31"/>
     </row>
@@ -5152,7 +5179,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -5164,7 +5191,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -5176,7 +5203,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5200,7 +5227,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5305,7 +5332,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5344,7 +5371,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyt/notes/divinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3FD4D-E48C-452C-BA7B-2B4F1DD39B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961D5F8-022F-CB4A-8FF9-67D6EFC4330C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="280" yWindow="1300" windowWidth="26920" windowHeight="13960" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -601,7 +601,6 @@
       <filters>
         <filter val="Expert Marksman"/>
         <filter val="Hydrosophist"/>
-        <filter val="Witchcraft"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -614,7 +613,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="4">
@@ -660,17 +659,6 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
   <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-        <filter val="Novice"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -692,7 +680,6 @@
       <filters>
         <filter val="Hydrosophist"/>
         <filter val="Scoundrel"/>
-        <filter val="Witchcraft"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -705,8 +692,8 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition ref="B1:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D43">
+    <sortCondition ref="C1:C49"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
@@ -1021,13 +1008,13 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -1041,7 +1028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1056,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1071,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1086,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1101,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1116,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1146,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1161,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1176,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1191,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1206,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1236,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -1251,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -1266,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1281,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -1296,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1311,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1326,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1341,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1356,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1371,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1386,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -1416,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1431,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1446,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1461,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1506,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1521,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1536,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -1551,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1566,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1596,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1611,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1626,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1641,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1656,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1671,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1686,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1701,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -1716,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1731,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1761,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1776,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1821,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1851,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1866,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1881,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -1896,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1908,10 +1895,10 @@
       </c>
       <c r="D59">
         <f>IF(ISNA(VLOOKUP(A59,danger[],1,FALSE)),0,IF(VLOOKUP(A59,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,brenda[],1,FALSE)),0,IF(VLOOKUP(A59,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,madora[],1,FALSE)),0,IF(VLOOKUP(A59,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,jehan[],1,FALSE)),0,IF(VLOOKUP(A59,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1923,10 +1910,10 @@
       </c>
       <c r="D60">
         <f>IF(ISNA(VLOOKUP(A60,danger[],1,FALSE)),0,IF(VLOOKUP(A60,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,brenda[],1,FALSE)),0,IF(VLOOKUP(A60,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,madora[],1,FALSE)),0,IF(VLOOKUP(A60,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A60,jehan[],1,FALSE)),0,IF(VLOOKUP(A60,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1941,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1956,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -1971,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -1986,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -2001,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2016,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2031,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -2046,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -2061,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -2076,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2091,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2136,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2151,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2196,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2226,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2256,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2316,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2331,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -2376,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -2391,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -2406,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2421,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -2436,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2466,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2496,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2526,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2541,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -2556,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2571,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -2586,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -2601,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -2616,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2631,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -2646,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2661,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2676,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2691,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2721,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -2736,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2751,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2763,10 +2750,10 @@
       </c>
       <c r="D116">
         <f>IF(ISNA(VLOOKUP(A116,danger[],1,FALSE)),0,IF(VLOOKUP(A116,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,brenda[],1,FALSE)),0,IF(VLOOKUP(A116,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,madora[],1,FALSE)),0,IF(VLOOKUP(A116,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A116,jehan[],1,FALSE)),0,IF(VLOOKUP(A116,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -2778,10 +2765,10 @@
       </c>
       <c r="D117">
         <f>IF(ISNA(VLOOKUP(A117,danger[],1,FALSE)),0,IF(VLOOKUP(A117,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,brenda[],1,FALSE)),0,IF(VLOOKUP(A117,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,madora[],1,FALSE)),0,IF(VLOOKUP(A117,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A117,jehan[],1,FALSE)),0,IF(VLOOKUP(A117,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -2796,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2808,10 +2795,10 @@
       </c>
       <c r="D119">
         <f>IF(ISNA(VLOOKUP(A119,danger[],1,FALSE)),0,IF(VLOOKUP(A119,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,brenda[],1,FALSE)),0,IF(VLOOKUP(A119,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,madora[],1,FALSE)),0,IF(VLOOKUP(A119,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,jehan[],1,FALSE)),0,IF(VLOOKUP(A119,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2823,10 +2810,10 @@
       </c>
       <c r="D120">
         <f>IF(ISNA(VLOOKUP(A120,danger[],1,FALSE)),0,IF(VLOOKUP(A120,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,brenda[],1,FALSE)),0,IF(VLOOKUP(A120,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,madora[],1,FALSE)),0,IF(VLOOKUP(A120,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A120,jehan[],1,FALSE)),0,IF(VLOOKUP(A120,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2841,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -2853,10 +2840,10 @@
       </c>
       <c r="D122">
         <f>IF(ISNA(VLOOKUP(A122,danger[],1,FALSE)),0,IF(VLOOKUP(A122,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,brenda[],1,FALSE)),0,IF(VLOOKUP(A122,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,madora[],1,FALSE)),0,IF(VLOOKUP(A122,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A122,jehan[],1,FALSE)),0,IF(VLOOKUP(A122,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2868,10 +2855,10 @@
       </c>
       <c r="D123">
         <f>IF(ISNA(VLOOKUP(A123,danger[],1,FALSE)),0,IF(VLOOKUP(A123,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,brenda[],1,FALSE)),0,IF(VLOOKUP(A123,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,madora[],1,FALSE)),0,IF(VLOOKUP(A123,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,jehan[],1,FALSE)),0,IF(VLOOKUP(A123,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2883,10 +2870,10 @@
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -2916,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2928,10 +2915,10 @@
       </c>
       <c r="D127">
         <f>IF(ISNA(VLOOKUP(A127,danger[],1,FALSE)),0,IF(VLOOKUP(A127,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,brenda[],1,FALSE)),0,IF(VLOOKUP(A127,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,madora[],1,FALSE)),0,IF(VLOOKUP(A127,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A127,jehan[],1,FALSE)),0,IF(VLOOKUP(A127,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -2946,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2958,7 +2945,7 @@
       </c>
       <c r="D129">
         <f>IF(ISNA(VLOOKUP(A129,danger[],1,FALSE)),0,IF(VLOOKUP(A129,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,brenda[],1,FALSE)),0,IF(VLOOKUP(A129,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,madora[],1,FALSE)),0,IF(VLOOKUP(A129,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A129,jehan[],1,FALSE)),0,IF(VLOOKUP(A129,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2974,17 +2961,17 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2999,20 +2986,20 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3027,9 +3014,9 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3040,9 +3027,9 @@
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3053,20 +3040,20 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3081,7 +3068,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3096,20 +3083,20 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3124,9 +3111,9 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -3137,9 +3124,9 @@
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -3150,20 +3137,20 @@
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3176,7 +3163,7 @@
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3189,7 +3176,7 @@
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3202,7 +3189,7 @@
       <c r="D16" s="1"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3215,7 +3202,7 @@
       <c r="D17" s="1"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3217,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3232,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3260,7 +3247,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3262,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3277,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3305,7 +3292,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3307,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3335,7 +3322,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3350,7 +3337,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3365,7 +3352,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3380,7 +3367,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3395,7 +3382,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3410,7 +3397,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3425,7 +3412,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3438,7 +3425,7 @@
       <c r="D32" s="1"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3453,7 +3440,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3468,7 +3455,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3478,10 +3465,12 @@
       <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3491,10 +3480,12 @@
       <c r="C36" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3507,7 +3498,7 @@
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3520,7 +3511,7 @@
       <c r="D38" s="1"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3526,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3550,7 +3541,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3565,7 +3556,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3575,10 +3566,12 @@
       <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3588,10 +3581,12 @@
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3606,7 +3601,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3621,7 +3616,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3634,7 +3629,7 @@
       <c r="D46" s="1"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3644,7 +3639,9 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E47"/>
     </row>
   </sheetData>
@@ -3663,14 +3660,14 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3684,7 +3681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3695,7 +3692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3767,7 +3764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3828,7 +3825,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3964,7 +3961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4056,7 +4053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4081,7 +4078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4109,7 +4106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4137,7 +4134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -4151,7 +4148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -4173,7 +4170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4209,7 +4206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4223,7 +4220,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4248,7 +4245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4301,7 +4298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -4323,7 +4320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4337,7 +4334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4364,18 +4361,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4390,7 +4387,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4405,7 +4402,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4420,7 +4417,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4435,7 +4432,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4465,7 +4462,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4480,7 +4477,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4495,7 +4492,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -4507,7 +4504,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -4522,7 +4519,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4537,7 +4534,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4549,7 +4546,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -4561,7 +4558,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4576,7 +4573,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +4588,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4606,7 +4603,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4621,7 +4618,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4636,7 +4633,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4651,7 +4648,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4663,7 +4660,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4673,9 +4670,12 @@
       <c r="C21" t="s">
         <v>138</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4685,9 +4685,12 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4696,6 +4699,9 @@
       </c>
       <c r="C23" t="s">
         <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E23"/>
     </row>
@@ -4712,18 +4718,18 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4738,7 +4744,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4753,7 +4759,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4768,7 +4774,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4780,7 +4786,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4792,7 +4798,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4804,7 +4810,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4819,7 +4825,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4834,7 +4840,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4849,7 +4855,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4864,7 +4870,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4879,7 +4885,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4894,7 +4900,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4909,7 +4915,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4924,7 +4930,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4939,7 +4945,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4951,7 +4957,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4966,7 +4972,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4981,7 +4987,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4993,7 +4999,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -5005,7 +5011,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +5026,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5032,7 +5038,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5047,7 +5053,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -5062,7 +5068,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -5077,7 +5083,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5092,7 +5098,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -5107,7 +5113,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +5128,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5137,7 +5143,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -5152,7 +5158,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5167,21 +5173,21 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -5191,9 +5197,9 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -5203,9 +5209,9 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -5215,7 +5221,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -5227,19 +5233,19 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5254,7 +5260,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5264,9 +5270,12 @@
       <c r="C39" t="s">
         <v>138</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5281,7 +5290,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5291,9 +5300,12 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5308,7 +5320,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -5320,7 +5332,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5332,7 +5344,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5344,7 +5356,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -5359,7 +5371,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -5369,9 +5381,12 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -5383,7 +5398,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5392,6 +5407,9 @@
       </c>
       <c r="C49" t="s">
         <v>138</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E49"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyt/notes/divinity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961D5F8-022F-CB4A-8FF9-67D6EFC4330C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADADEC1-2B13-4561-AAC1-7EB6B329779F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1300" windowWidth="26920" windowHeight="13960" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -597,12 +597,6 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Expert Marksman"/>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
@@ -1008,13 +1002,13 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="22.5" customWidth="1"/>
+    <col min="5" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1058,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1088,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1178,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1193,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1223,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -1238,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -1283,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1298,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1328,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1418,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1433,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1478,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1523,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1613,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1673,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1763,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1868,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1898,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1943,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -1973,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -2033,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -2048,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2213,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2243,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2303,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2333,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2348,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -2423,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2453,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -2498,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -2543,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -2573,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2663,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -2723,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2738,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -2783,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2798,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2813,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2888,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -2903,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2918,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -2933,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2964,14 +2958,14 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2986,7 +2980,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2999,7 +2993,7 @@
       <c r="D2" s="1"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +3008,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3027,7 +3021,7 @@
       <c r="D4" s="1"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -3040,7 +3034,7 @@
       <c r="D5" s="1"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3053,7 +3047,7 @@
       <c r="D6" s="1"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3062,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3083,7 +3077,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3096,7 +3090,7 @@
       <c r="D9" s="1"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3105,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3124,7 +3118,7 @@
       <c r="D11" s="1"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3137,7 +3131,7 @@
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3144,7 @@
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3163,7 +3157,7 @@
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3176,7 +3170,7 @@
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3189,7 +3183,7 @@
       <c r="D16" s="1"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3202,7 +3196,7 @@
       <c r="D17" s="1"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3217,7 +3211,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3232,7 +3226,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +3241,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3262,7 +3256,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3277,7 +3271,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3292,7 +3286,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3307,7 +3301,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3322,7 +3316,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3337,7 +3331,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3352,7 +3346,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3367,7 +3361,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3382,7 +3376,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3397,7 +3391,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3412,7 +3406,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3425,7 +3419,7 @@
       <c r="D32" s="1"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3440,7 +3434,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3455,7 +3449,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3470,7 +3464,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3485,7 +3479,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3498,7 +3492,7 @@
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3511,7 +3505,7 @@
       <c r="D38" s="1"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3526,7 +3520,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3541,7 +3535,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3556,7 +3550,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3571,7 +3565,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3586,7 +3580,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3601,7 +3595,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +3610,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3623,7 @@
       <c r="D46" s="1"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3660,14 +3654,14 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3703,7 +3697,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3714,7 +3708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3736,7 +3730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3775,7 +3769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3800,7 +3794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3811,7 +3805,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3825,7 +3819,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3839,7 +3833,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3853,7 +3847,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3864,7 +3858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3875,7 +3869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3886,7 +3880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3908,7 +3902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3919,7 +3913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3933,7 +3927,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3947,7 +3941,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3961,7 +3955,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3972,7 +3966,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3986,7 +3980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4028,7 +4022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4042,7 +4036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4053,7 +4047,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4064,7 +4058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4078,7 +4072,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4092,7 +4086,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4106,7 +4100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4120,7 +4114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -4148,7 +4142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4159,7 +4153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -4170,7 +4164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4181,7 +4175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4192,7 +4186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4220,7 +4214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4245,7 +4239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -4273,7 +4267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4298,7 +4292,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -4309,7 +4303,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4334,7 +4328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4364,15 +4358,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4387,7 +4381,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4402,7 +4396,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4417,7 +4411,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4432,7 +4426,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4447,7 +4441,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4462,7 +4456,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4477,7 +4471,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4492,7 +4486,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -4504,7 +4498,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -4519,7 +4513,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4534,7 +4528,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4546,7 +4540,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -4558,7 +4552,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4573,7 +4567,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4588,7 +4582,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4603,7 +4597,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4618,7 +4612,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4633,7 +4627,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4648,7 +4642,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4660,7 +4654,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4675,7 +4669,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4690,7 +4684,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4721,15 +4715,15 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4744,7 +4738,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4759,7 +4753,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4774,7 +4768,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4786,7 +4780,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4798,7 +4792,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4810,7 +4804,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4825,7 +4819,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4840,7 +4834,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4855,7 +4849,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4870,7 +4864,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4885,7 +4879,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4900,7 +4894,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4915,7 +4909,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4930,7 +4924,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4945,7 +4939,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4957,7 +4951,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4972,7 +4966,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4987,7 +4981,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4999,7 +4993,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -5011,7 +5005,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5026,7 +5020,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5038,7 +5032,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5053,7 +5047,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -5068,7 +5062,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -5083,7 +5077,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +5092,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -5113,7 +5107,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -5128,7 +5122,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5143,7 +5137,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -5158,7 +5152,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5173,7 +5167,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -5185,7 +5179,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -5197,7 +5191,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -5209,7 +5203,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5221,7 +5215,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -5233,7 +5227,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5245,7 +5239,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5260,7 +5254,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5275,7 +5269,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5290,7 +5284,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5305,7 +5299,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5320,7 +5314,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -5332,7 +5326,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5344,7 +5338,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5356,7 +5350,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -5371,7 +5365,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -5386,7 +5380,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -5398,7 +5392,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADADEC1-2B13-4561-AAC1-7EB6B329779F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F325EB-1DB6-4A92-907B-E33EB272A7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
     <sheet name="Danger" sheetId="11" r:id="rId2"/>
     <sheet name="Brenda" sheetId="13" r:id="rId3"/>
-    <sheet name="Madora" sheetId="12" r:id="rId4"/>
-    <sheet name="Jehan" sheetId="14" r:id="rId5"/>
+    <sheet name="Jehan" sheetId="14" r:id="rId4"/>
+    <sheet name="Madora" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -566,16 +566,13 @@
   <autoFilter ref="A1:D129" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Geomancer"/>
-        <filter val="Man-At-Arms"/>
+        <filter val="Hydrosophist"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
-        <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -597,10 +594,15 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Expert Marksman"/>
+        <filter val="Hydrosophist"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
-        <filter val="Novice"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -625,20 +627,22 @@
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Man-At-Arms"/>
         <filter val="Scoundrel"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
+        <filter val="Novice"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:D48">
-    <sortCondition ref="C1:C54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="B1:B54"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
@@ -651,35 +655,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
         <filter val="Hydrosophist"/>
         <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-        <filter val="Novice"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -696,6 +677,23 @@
     <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -999,7 +997,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1872,7 @@
       </c>
       <c r="D58">
         <f>IF(ISNA(VLOOKUP(A58,danger[],1,FALSE)),0,IF(VLOOKUP(A58,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,brenda[],1,FALSE)),0,IF(VLOOKUP(A58,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,madora[],1,FALSE)),0,IF(VLOOKUP(A58,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,jehan[],1,FALSE)),0,IF(VLOOKUP(A58,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2012,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2447,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2457,7 @@
       </c>
       <c r="D97">
         <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2507,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2549,10 +2547,10 @@
       </c>
       <c r="D103">
         <f>IF(ISNA(VLOOKUP(A103,danger[],1,FALSE)),0,IF(VLOOKUP(A103,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,brenda[],1,FALSE)),0,IF(VLOOKUP(A103,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,madora[],1,FALSE)),0,IF(VLOOKUP(A103,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A103,jehan[],1,FALSE)),0,IF(VLOOKUP(A103,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2954,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,7 +2978,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -3077,7 +3075,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3087,7 +3085,9 @@
       <c r="C9" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,18 +3699,18 @@
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3849,18 +3849,18 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4036,26 +4036,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4164,7 +4167,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4174,8 +4177,11 @@
       <c r="C41" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4294,24 +4300,24 @@
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4351,6 +4357,714 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4705,712 +5419,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F325EB-1DB6-4A92-907B-E33EB272A7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C0B3A4-386A-421A-AFF6-286DCD7CBD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1290" windowWidth="26925" windowHeight="13950" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -594,17 +594,6 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Expert Marksman"/>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -625,18 +614,6 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Man-At-Arms"/>
-        <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-        <filter val="Novice"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -674,7 +651,7 @@
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
     <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,7 +668,7 @@
     <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
     <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1347,7 +1324,7 @@
       </c>
       <c r="D23">
         <f>IF(ISNA(VLOOKUP(A23,danger[],1,FALSE)),0,IF(VLOOKUP(A23,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,brenda[],1,FALSE)),0,IF(VLOOKUP(A23,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,madora[],1,FALSE)),0,IF(VLOOKUP(A23,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A23,jehan[],1,FALSE)),0,IF(VLOOKUP(A23,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1444,7 @@
       </c>
       <c r="D31">
         <f>IF(ISNA(VLOOKUP(A31,danger[],1,FALSE)),0,IF(VLOOKUP(A31,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,brenda[],1,FALSE)),0,IF(VLOOKUP(A31,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,madora[],1,FALSE)),0,IF(VLOOKUP(A31,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,jehan[],1,FALSE)),0,IF(VLOOKUP(A31,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,7 +2930,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2955,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -3006,7 +2983,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3016,7 +2993,9 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3105,7 +3084,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3115,7 +3094,9 @@
       <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,7 +3125,7 @@
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3157,7 +3138,7 @@
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3170,7 +3151,7 @@
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3183,7 +3164,7 @@
       <c r="D16" s="1"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3406,7 +3387,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3479,7 +3460,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -3492,7 +3473,7 @@
       <c r="D37" s="1"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3610,7 +3591,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,7 +3656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3686,7 +3667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3697,7 +3678,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3708,7 +3689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3719,7 +3700,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3758,7 +3739,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3769,7 +3750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3794,7 +3775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3847,7 +3828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3839,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3869,7 +3850,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -3880,7 +3861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3891,7 +3872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3902,7 +3883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3955,7 +3936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4287,7 +4268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4298,7 +4279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4309,7 +4290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,7 +5050,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C0B3A4-386A-421A-AFF6-286DCD7CBD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08232550-7E44-459B-A665-14BE41A6CAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -564,11 +564,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BCEB27D-6E9F-4ECF-8BC4-D967EF319771}" name="skills" displayName="skills" ref="A1:D129" totalsRowShown="0">
   <autoFilter ref="A1:D129" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
@@ -598,7 +593,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D46">
     <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="4">
@@ -634,12 +629,6 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrosophist"/>
-        <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -974,7 +963,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1162,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1342,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1402,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1432,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1777,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1837,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -1882,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1897,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1942,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -1972,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2077,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2092,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2152,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2197,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2344,7 +2333,7 @@
       </c>
       <c r="D91">
         <f>IF(ISNA(VLOOKUP(A91,danger[],1,FALSE)),0,IF(VLOOKUP(A91,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,brenda[],1,FALSE)),0,IF(VLOOKUP(A91,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,madora[],1,FALSE)),0,IF(VLOOKUP(A91,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A91,jehan[],1,FALSE)),0,IF(VLOOKUP(A91,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2542,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -2752,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2782,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2812,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2827,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2887,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2944,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2965,7 +2954,9 @@
       <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3101,52 +3092,52 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15"/>
@@ -3166,13 +3157,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17"/>
@@ -3389,13 +3380,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32"/>
@@ -4341,7 +4332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -4398,7 +4389,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4410,7 +4401,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4422,7 +4413,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4956,7 +4947,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4968,7 +4959,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5010,7 +5001,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08232550-7E44-459B-A665-14BE41A6CAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F1151-9552-42BC-9620-7FDA3DAF59A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -609,6 +609,12 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Man-At-Arms"/>
+        <filter val="Scoundrel"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="D54">
         <f>IF(ISNA(VLOOKUP(A54,danger[],1,FALSE)),0,IF(VLOOKUP(A54,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,brenda[],1,FALSE)),0,IF(VLOOKUP(A54,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,madora[],1,FALSE)),0,IF(VLOOKUP(A54,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,jehan[],1,FALSE)),0,IF(VLOOKUP(A54,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1943,7 +1949,7 @@
       </c>
       <c r="D65">
         <f>IF(ISNA(VLOOKUP(A65,danger[],1,FALSE)),0,IF(VLOOKUP(A65,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,brenda[],1,FALSE)),0,IF(VLOOKUP(A65,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,madora[],1,FALSE)),0,IF(VLOOKUP(A65,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,jehan[],1,FALSE)),0,IF(VLOOKUP(A65,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2693,7 +2699,7 @@
       </c>
       <c r="D115">
         <f>IF(ISNA(VLOOKUP(A115,danger[],1,FALSE)),0,IF(VLOOKUP(A115,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,brenda[],1,FALSE)),0,IF(VLOOKUP(A115,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,madora[],1,FALSE)),0,IF(VLOOKUP(A115,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,jehan[],1,FALSE)),0,IF(VLOOKUP(A115,jehan[],4,FALSE)="",1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2783,7 +2789,7 @@
       </c>
       <c r="D121">
         <f>IF(ISNA(VLOOKUP(A121,danger[],1,FALSE)),0,IF(VLOOKUP(A121,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,brenda[],1,FALSE)),0,IF(VLOOKUP(A121,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,madora[],1,FALSE)),0,IF(VLOOKUP(A121,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,jehan[],1,FALSE)),0,IF(VLOOKUP(A121,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2919,7 +2925,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3096,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -3100,7 +3106,9 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,7 +3631,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,7 +3655,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3669,7 +3677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3730,7 +3738,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3741,7 +3749,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3874,7 +3882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -4201,6 +4209,9 @@
       </c>
       <c r="C45" t="s">
         <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4270,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4333,7 +4344,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B16" sqref="B16:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,7 +4799,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4797,6 +4808,9 @@
       </c>
       <c r="C32" t="s">
         <v>137</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E32"/>
     </row>
@@ -4848,7 +4862,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4857,6 +4871,9 @@
       </c>
       <c r="C37" t="s">
         <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E37"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F1151-9552-42BC-9620-7FDA3DAF59A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D968BC9-BD8C-4092-9767-A10850CDBDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -659,6 +659,9 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D20">
+    <sortCondition ref="B1:B23"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
@@ -2414,7 +2417,7 @@
       </c>
       <c r="D96">
         <f>IF(ISNA(VLOOKUP(A96,danger[],1,FALSE)),0,IF(VLOOKUP(A96,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,brenda[],1,FALSE)),0,IF(VLOOKUP(A96,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,madora[],1,FALSE)),0,IF(VLOOKUP(A96,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,jehan[],1,FALSE)),0,IF(VLOOKUP(A96,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,7 +2537,7 @@
       </c>
       <c r="D104">
         <f>IF(ISNA(VLOOKUP(A104,danger[],1,FALSE)),0,IF(VLOOKUP(A104,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,brenda[],1,FALSE)),0,IF(VLOOKUP(A104,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,madora[],1,FALSE)),0,IF(VLOOKUP(A104,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,jehan[],1,FALSE)),0,IF(VLOOKUP(A104,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4343,8 +4346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5061,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,7 +5192,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -5198,6 +5201,9 @@
       </c>
       <c r="C9" t="s">
         <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E9"/>
     </row>
@@ -5231,7 +5237,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -5240,6 +5246,9 @@
       </c>
       <c r="C12" t="s">
         <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E12"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D968BC9-BD8C-4092-9767-A10850CDBDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBE087-1AAF-45E8-810C-815F6F348863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
-    <sheet name="Danger" sheetId="11" r:id="rId2"/>
+    <sheet name="Madora" sheetId="12" r:id="rId2"/>
     <sheet name="Brenda" sheetId="13" r:id="rId3"/>
-    <sheet name="Jehan" sheetId="14" r:id="rId4"/>
-    <sheet name="Madora" sheetId="12" r:id="rId5"/>
+    <sheet name="Jahan" sheetId="14" r:id="rId4"/>
+    <sheet name="Danger" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="147">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -474,7 +474,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>have book</t>
+    <t>one of each</t>
+  </si>
+  <si>
+    <t>good for now</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -587,8 +590,94 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Man-At-Arms"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D20">
+    <sortCondition ref="B1:B23"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
+  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="B1:B54"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
+  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Witchcraft"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D43">
+    <sortCondition ref="C1:C49"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Expert Marksman"/>
+        <filter val="Hydrosophist"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -603,72 +692,6 @@
     <tableColumn id="4" xr3:uid="{8ED59A27-4F8A-4661-B0B9-115970921D5E}" name="Aquired"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
-  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Man-At-Arms"/>
-        <filter val="Scoundrel"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="B1:B54"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
-  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D43">
-    <sortCondition ref="C1:C49"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D20">
-    <sortCondition ref="B1:B23"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{249A515D-FAB0-463E-A8AC-B9BED0EC78EC}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{443BDCA9-B574-49BC-8D2D-7B7C0B7502E1}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{AAD38B11-217C-4E46-BD41-62DF742541ED}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{D03EDB2F-270B-41CD-9B77-632A5ABBC2C9}" name="Aquired" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1412,7 +1435,7 @@
       </c>
       <c r="D29">
         <f>IF(ISNA(VLOOKUP(A29,danger[],1,FALSE)),0,IF(VLOOKUP(A29,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,brenda[],1,FALSE)),0,IF(VLOOKUP(A29,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,madora[],1,FALSE)),0,IF(VLOOKUP(A29,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,jehan[],1,FALSE)),0,IF(VLOOKUP(A29,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1442,7 +1465,7 @@
       </c>
       <c r="D31">
         <f>IF(ISNA(VLOOKUP(A31,danger[],1,FALSE)),0,IF(VLOOKUP(A31,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,brenda[],1,FALSE)),0,IF(VLOOKUP(A31,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,madora[],1,FALSE)),0,IF(VLOOKUP(A31,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,jehan[],1,FALSE)),0,IF(VLOOKUP(A31,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,7 +1510,7 @@
       </c>
       <c r="D34">
         <f>IF(ISNA(VLOOKUP(A34,danger[],1,FALSE)),0,IF(VLOOKUP(A34,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,brenda[],1,FALSE)),0,IF(VLOOKUP(A34,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,madora[],1,FALSE)),0,IF(VLOOKUP(A34,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,jehan[],1,FALSE)),0,IF(VLOOKUP(A34,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1802,7 +1825,7 @@
       </c>
       <c r="D55">
         <f>IF(ISNA(VLOOKUP(A55,danger[],1,FALSE)),0,IF(VLOOKUP(A55,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,brenda[],1,FALSE)),0,IF(VLOOKUP(A55,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,madora[],1,FALSE)),0,IF(VLOOKUP(A55,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A55,jehan[],1,FALSE)),0,IF(VLOOKUP(A55,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1840,7 @@
       </c>
       <c r="D56">
         <f>IF(ISNA(VLOOKUP(A56,danger[],1,FALSE)),0,IF(VLOOKUP(A56,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,brenda[],1,FALSE)),0,IF(VLOOKUP(A56,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,madora[],1,FALSE)),0,IF(VLOOKUP(A56,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,jehan[],1,FALSE)),0,IF(VLOOKUP(A56,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1885,7 @@
       </c>
       <c r="D59">
         <f>IF(ISNA(VLOOKUP(A59,danger[],1,FALSE)),0,IF(VLOOKUP(A59,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,brenda[],1,FALSE)),0,IF(VLOOKUP(A59,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,madora[],1,FALSE)),0,IF(VLOOKUP(A59,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A59,jehan[],1,FALSE)),0,IF(VLOOKUP(A59,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1930,7 @@
       </c>
       <c r="D62">
         <f>IF(ISNA(VLOOKUP(A62,danger[],1,FALSE)),0,IF(VLOOKUP(A62,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,brenda[],1,FALSE)),0,IF(VLOOKUP(A62,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,madora[],1,FALSE)),0,IF(VLOOKUP(A62,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,jehan[],1,FALSE)),0,IF(VLOOKUP(A62,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2230,7 @@
       </c>
       <c r="D82">
         <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2432,7 +2455,7 @@
       </c>
       <c r="D97">
         <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2515,7 @@
       </c>
       <c r="D101">
         <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2537,7 +2560,7 @@
       </c>
       <c r="D104">
         <f>IF(ISNA(VLOOKUP(A104,danger[],1,FALSE)),0,IF(VLOOKUP(A104,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,brenda[],1,FALSE)),0,IF(VLOOKUP(A104,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,madora[],1,FALSE)),0,IF(VLOOKUP(A104,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A104,jehan[],1,FALSE)),0,IF(VLOOKUP(A104,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,7 +2845,7 @@
       </c>
       <c r="D123">
         <f>IF(ISNA(VLOOKUP(A123,danger[],1,FALSE)),0,IF(VLOOKUP(A123,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,brenda[],1,FALSE)),0,IF(VLOOKUP(A123,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,madora[],1,FALSE)),0,IF(VLOOKUP(A123,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,jehan[],1,FALSE)),0,IF(VLOOKUP(A123,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +2860,7 @@
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2924,1430 +2947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,6 +2979,1114 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
@@ -4403,7 +4115,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4415,7 +4127,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4427,7 +4139,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4524,9 +4236,6 @@
       <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4574,7 +4283,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4616,7 +4325,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4628,7 +4337,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -4655,7 +4364,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4817,7 +4526,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4827,9 +4536,12 @@
       <c r="C33" t="s">
         <v>137</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4839,9 +4551,12 @@
       <c r="C34" t="s">
         <v>137</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4853,7 +4568,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -4955,7 +4670,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -4967,7 +4682,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4977,9 +4692,12 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4988,6 +4706,9 @@
       </c>
       <c r="C45" t="s">
         <v>137</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E45"/>
     </row>
@@ -5057,22 +4778,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -5087,12 +4807,12 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>138</v>
@@ -5102,69 +4822,70 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5177,42 +4898,42 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>137</v>
@@ -5222,12 +4943,12 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -5237,12 +4958,12 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>136</v>
@@ -5252,84 +4973,77 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>138</v>
@@ -5341,10 +5055,10 @@
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>138</v>
@@ -5354,24 +5068,27 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
@@ -5383,10 +5100,10 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
@@ -5398,18 +5115,370 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23"/>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBE087-1AAF-45E8-810C-815F6F348863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F62A9-C273-49F0-843A-B0E8CC0FFAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>one of each</t>
   </si>
   <si>
     <t>good for now</t>
@@ -1375,7 +1372,7 @@
       </c>
       <c r="D25">
         <f>IF(ISNA(VLOOKUP(A25,danger[],1,FALSE)),0,IF(VLOOKUP(A25,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,brenda[],1,FALSE)),0,IF(VLOOKUP(A25,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,madora[],1,FALSE)),0,IF(VLOOKUP(A25,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A25,jehan[],1,FALSE)),0,IF(VLOOKUP(A25,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3369,7 @@
         <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,10 +4776,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,7 +4789,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4807,7 +4804,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4822,7 +4819,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4837,7 +4834,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -4852,7 +4849,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4862,13 +4859,12 @@
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E5"/>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4883,7 +4879,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4898,7 +4894,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4913,7 +4909,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4928,7 +4924,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -4943,7 +4939,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -4958,7 +4954,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -4973,7 +4969,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -4986,7 +4982,7 @@
       <c r="D13" s="1"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -4999,7 +4995,7 @@
       <c r="D14" s="1"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5012,7 +5008,7 @@
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F62A9-C273-49F0-843A-B0E8CC0FFAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43B8C3-1A6F-4F0A-8BE7-7DC6BD86A372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -571,8 +571,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:D107">
-    <sortCondition ref="B1:B129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D128">
+    <sortCondition ref="A1:A129"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{C942E722-BCB0-4010-8BDE-D8A787CFEDA6}" name="Skill"/>
@@ -589,11 +589,6 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2567B707-35F9-4175-8E67-C06A8044C0B1}" name="madora" displayName="madora" ref="A1:D23" totalsRowShown="0">
   <autoFilter ref="A1:D23" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Man-At-Arms"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -614,6 +609,11 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hydrosophist"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -636,12 +636,8 @@
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Hydrosophist"/>
         <filter val="Witchcraft"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -668,11 +664,6 @@
       <filters>
         <filter val="Expert Marksman"/>
         <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -991,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,17 +1053,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <f>IF(ISNA(VLOOKUP(A5,danger[],1,FALSE)),0,IF(VLOOKUP(A5,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,brenda[],1,FALSE)),0,IF(VLOOKUP(A5,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,madora[],1,FALSE)),0,IF(VLOOKUP(A5,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A5,jehan[],1,FALSE)),0,IF(VLOOKUP(A5,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1182,17 +1173,17 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <f>IF(ISNA(VLOOKUP(A13,danger[],1,FALSE)),0,IF(VLOOKUP(A13,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,brenda[],1,FALSE)),0,IF(VLOOKUP(A13,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,madora[],1,FALSE)),0,IF(VLOOKUP(A13,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A13,jehan[],1,FALSE)),0,IF(VLOOKUP(A13,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1362,10 +1353,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>137</v>
@@ -1422,13 +1413,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29">
         <f>IF(ISNA(VLOOKUP(A29,danger[],1,FALSE)),0,IF(VLOOKUP(A29,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,brenda[],1,FALSE)),0,IF(VLOOKUP(A29,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,madora[],1,FALSE)),0,IF(VLOOKUP(A29,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A29,jehan[],1,FALSE)),0,IF(VLOOKUP(A29,jehan[],4,FALSE)="",1,0))</f>
@@ -1467,10 +1458,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>137</v>
@@ -1482,32 +1473,32 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33">
         <f>IF(ISNA(VLOOKUP(A33,danger[],1,FALSE)),0,IF(VLOOKUP(A33,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,brenda[],1,FALSE)),0,IF(VLOOKUP(A33,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,madora[],1,FALSE)),0,IF(VLOOKUP(A33,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A33,jehan[],1,FALSE)),0,IF(VLOOKUP(A33,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <f>IF(ISNA(VLOOKUP(A34,danger[],1,FALSE)),0,IF(VLOOKUP(A34,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,brenda[],1,FALSE)),0,IF(VLOOKUP(A34,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,madora[],1,FALSE)),0,IF(VLOOKUP(A34,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,jehan[],1,FALSE)),0,IF(VLOOKUP(A34,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1797,17 +1788,17 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
       </c>
       <c r="D54">
         <f>IF(ISNA(VLOOKUP(A54,danger[],1,FALSE)),0,IF(VLOOKUP(A54,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,brenda[],1,FALSE)),0,IF(VLOOKUP(A54,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,madora[],1,FALSE)),0,IF(VLOOKUP(A54,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,jehan[],1,FALSE)),0,IF(VLOOKUP(A54,jehan[],4,FALSE)="",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1857,10 +1848,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>137</v>
@@ -1902,32 +1893,32 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
       </c>
       <c r="D61">
         <f>IF(ISNA(VLOOKUP(A61,danger[],1,FALSE)),0,IF(VLOOKUP(A61,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,brenda[],1,FALSE)),0,IF(VLOOKUP(A61,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,madora[],1,FALSE)),0,IF(VLOOKUP(A61,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A61,jehan[],1,FALSE)),0,IF(VLOOKUP(A61,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>137</v>
       </c>
       <c r="D62">
         <f>IF(ISNA(VLOOKUP(A62,danger[],1,FALSE)),0,IF(VLOOKUP(A62,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,brenda[],1,FALSE)),0,IF(VLOOKUP(A62,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,madora[],1,FALSE)),0,IF(VLOOKUP(A62,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,jehan[],1,FALSE)),0,IF(VLOOKUP(A62,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1962,13 +1953,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D65">
         <f>IF(ISNA(VLOOKUP(A65,danger[],1,FALSE)),0,IF(VLOOKUP(A65,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,brenda[],1,FALSE)),0,IF(VLOOKUP(A65,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,madora[],1,FALSE)),0,IF(VLOOKUP(A65,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A65,jehan[],1,FALSE)),0,IF(VLOOKUP(A65,jehan[],4,FALSE)="",1,0))</f>
@@ -1992,32 +1983,32 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67">
         <f>IF(ISNA(VLOOKUP(A67,danger[],1,FALSE)),0,IF(VLOOKUP(A67,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,brenda[],1,FALSE)),0,IF(VLOOKUP(A67,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,madora[],1,FALSE)),0,IF(VLOOKUP(A67,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,jehan[],1,FALSE)),0,IF(VLOOKUP(A67,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D68">
         <f>IF(ISNA(VLOOKUP(A68,danger[],1,FALSE)),0,IF(VLOOKUP(A68,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,brenda[],1,FALSE)),0,IF(VLOOKUP(A68,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,madora[],1,FALSE)),0,IF(VLOOKUP(A68,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A68,jehan[],1,FALSE)),0,IF(VLOOKUP(A68,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2097,10 +2088,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>136</v>
@@ -2112,13 +2103,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D75">
         <f>IF(ISNA(VLOOKUP(A75,danger[],1,FALSE)),0,IF(VLOOKUP(A75,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,brenda[],1,FALSE)),0,IF(VLOOKUP(A75,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,madora[],1,FALSE)),0,IF(VLOOKUP(A75,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,jehan[],1,FALSE)),0,IF(VLOOKUP(A75,jehan[],4,FALSE)="",1,0))</f>
@@ -2172,28 +2163,28 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D79">
         <f>IF(ISNA(VLOOKUP(A79,danger[],1,FALSE)),0,IF(VLOOKUP(A79,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,brenda[],1,FALSE)),0,IF(VLOOKUP(A79,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,madora[],1,FALSE)),0,IF(VLOOKUP(A79,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A79,jehan[],1,FALSE)),0,IF(VLOOKUP(A79,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80">
         <f>IF(ISNA(VLOOKUP(A80,danger[],1,FALSE)),0,IF(VLOOKUP(A80,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,brenda[],1,FALSE)),0,IF(VLOOKUP(A80,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,madora[],1,FALSE)),0,IF(VLOOKUP(A80,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,jehan[],1,FALSE)),0,IF(VLOOKUP(A80,jehan[],4,FALSE)="",1,0))</f>
@@ -2217,7 +2208,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -2227,7 +2218,7 @@
       </c>
       <c r="D82">
         <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2427,13 +2418,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D96">
         <f>IF(ISNA(VLOOKUP(A96,danger[],1,FALSE)),0,IF(VLOOKUP(A96,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,brenda[],1,FALSE)),0,IF(VLOOKUP(A96,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,madora[],1,FALSE)),0,IF(VLOOKUP(A96,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A96,jehan[],1,FALSE)),0,IF(VLOOKUP(A96,jehan[],4,FALSE)="",1,0))</f>
@@ -2442,17 +2433,17 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D97">
         <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2502,17 +2493,17 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101">
         <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2562,17 +2553,17 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D105">
         <f>IF(ISNA(VLOOKUP(A105,danger[],1,FALSE)),0,IF(VLOOKUP(A105,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,brenda[],1,FALSE)),0,IF(VLOOKUP(A105,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,madora[],1,FALSE)),0,IF(VLOOKUP(A105,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,jehan[],1,FALSE)),0,IF(VLOOKUP(A105,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2772,10 +2763,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
         <v>138</v>
@@ -2802,17 +2793,17 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
         <v>138</v>
       </c>
       <c r="D121">
         <f>IF(ISNA(VLOOKUP(A121,danger[],1,FALSE)),0,IF(VLOOKUP(A121,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,brenda[],1,FALSE)),0,IF(VLOOKUP(A121,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,madora[],1,FALSE)),0,IF(VLOOKUP(A121,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,jehan[],1,FALSE)),0,IF(VLOOKUP(A121,jehan[],4,FALSE)="",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2832,13 +2823,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123">
         <f>IF(ISNA(VLOOKUP(A123,danger[],1,FALSE)),0,IF(VLOOKUP(A123,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,brenda[],1,FALSE)),0,IF(VLOOKUP(A123,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,madora[],1,FALSE)),0,IF(VLOOKUP(A123,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A123,jehan[],1,FALSE)),0,IF(VLOOKUP(A123,jehan[],4,FALSE)="",1,0))</f>
@@ -2847,17 +2838,17 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
         <v>138</v>
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2907,10 +2898,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>138</v>
@@ -2948,7 +2939,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,7 +3130,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -3148,6 +3139,9 @@
       </c>
       <c r="C13" t="s">
         <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E13"/>
     </row>
@@ -3241,7 +3235,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3305,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3330,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3372,7 +3366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3383,7 +3377,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3422,7 +3416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3433,7 +3427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3458,7 +3452,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3838,7 +3832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4280,7 +4274,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4322,7 +4316,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4334,7 +4328,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -4361,7 +4355,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4778,7 +4772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -4969,7 +4963,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -5008,7 +5002,7 @@
       <c r="D15" s="1"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43B8C3-1A6F-4F0A-8BE7-7DC6BD86A372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEE56B-02C3-4B84-9811-5F802FC1442E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
     <sheet name="Madora" sheetId="12" r:id="rId2"/>
-    <sheet name="Brenda" sheetId="13" r:id="rId3"/>
+    <sheet name="Danger" sheetId="11" r:id="rId3"/>
     <sheet name="Jahan" sheetId="14" r:id="rId4"/>
-    <sheet name="Danger" sheetId="11" r:id="rId5"/>
+    <sheet name="Brenda" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -474,7 +474,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>good for now</t>
+    <t>all good</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
-  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
+  <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
         <filter val="Hydrosophist"/>
@@ -618,16 +618,16 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="B1:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D46">
+    <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E83FD4F5-EF8B-45F4-B51C-8A650BAD7CC7}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{46F78C11-4F89-4E41-9166-CD2936F8FAF7}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{D1A19125-EC0E-47C4-B504-830D04CF6759}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{8ED59A27-4F8A-4661-B0B9-115970921D5E}" name="Aquired"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -636,8 +636,12 @@
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Hydrosophist"/>
         <filter val="Witchcraft"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Adept"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -658,28 +662,22 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
-  <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Expert Marksman"/>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
+  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D46">
-    <sortCondition ref="B1:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="B1:B54"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{E83FD4F5-EF8B-45F4-B51C-8A650BAD7CC7}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{46F78C11-4F89-4E41-9166-CD2936F8FAF7}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{D1A19125-EC0E-47C4-B504-830D04CF6759}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{8ED59A27-4F8A-4661-B0B9-115970921D5E}" name="Aquired"/>
+    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -982,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1451,7 @@
       </c>
       <c r="D31">
         <f>IF(ISNA(VLOOKUP(A31,danger[],1,FALSE)),0,IF(VLOOKUP(A31,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,brenda[],1,FALSE)),0,IF(VLOOKUP(A31,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,madora[],1,FALSE)),0,IF(VLOOKUP(A31,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A31,jehan[],1,FALSE)),0,IF(VLOOKUP(A31,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1496,7 @@
       </c>
       <c r="D34">
         <f>IF(ISNA(VLOOKUP(A34,danger[],1,FALSE)),0,IF(VLOOKUP(A34,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,brenda[],1,FALSE)),0,IF(VLOOKUP(A34,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,madora[],1,FALSE)),0,IF(VLOOKUP(A34,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,jehan[],1,FALSE)),0,IF(VLOOKUP(A34,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1858,7 +1856,7 @@
       </c>
       <c r="D58">
         <f>IF(ISNA(VLOOKUP(A58,danger[],1,FALSE)),0,IF(VLOOKUP(A58,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,brenda[],1,FALSE)),0,IF(VLOOKUP(A58,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,madora[],1,FALSE)),0,IF(VLOOKUP(A58,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A58,jehan[],1,FALSE)),0,IF(VLOOKUP(A58,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1991,7 @@
       </c>
       <c r="D67">
         <f>IF(ISNA(VLOOKUP(A67,danger[],1,FALSE)),0,IF(VLOOKUP(A67,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,brenda[],1,FALSE)),0,IF(VLOOKUP(A67,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,madora[],1,FALSE)),0,IF(VLOOKUP(A67,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,jehan[],1,FALSE)),0,IF(VLOOKUP(A67,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,7 +2561,7 @@
       </c>
       <c r="D105">
         <f>IF(ISNA(VLOOKUP(A105,danger[],1,FALSE)),0,IF(VLOOKUP(A105,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,brenda[],1,FALSE)),0,IF(VLOOKUP(A105,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,madora[],1,FALSE)),0,IF(VLOOKUP(A105,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,jehan[],1,FALSE)),0,IF(VLOOKUP(A105,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2936,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3188,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3205,7 +3203,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3220,7 +3218,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3235,7 +3233,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3246,8 +3244,11 @@
         <v>138</v>
       </c>
       <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3262,7 +3263,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3277,7 +3278,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3301,22 +3302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3326,305 +3326,353 @@
       <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -3632,409 +3680,332 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4049,7 +4020,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4245,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4283,6 +4254,9 @@
       </c>
       <c r="C16" t="s">
         <v>137</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E16"/>
     </row>
@@ -4316,7 +4290,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4326,9 +4300,12 @@
       <c r="C19" t="s">
         <v>137</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -4355,7 +4332,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4769,21 +4746,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4793,349 +4771,305 @@
       <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -5143,332 +5077,409 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
       <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47"/>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEE56B-02C3-4B84-9811-5F802FC1442E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747535EA-D559-445D-AB25-2CC66AABAC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -524,10 +524,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -567,12 +567,13 @@
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
+        <filter val="2"/>
         <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D128">
-    <sortCondition ref="A1:A129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D128">
+    <sortCondition ref="B1:B129"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{C942E722-BCB0-4010-8BDE-D8A787CFEDA6}" name="Skill"/>
@@ -655,7 +656,7 @@
     <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
     <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,7 +676,7 @@
     <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
     <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1456,10 +1457,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>137</v>
@@ -1469,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -1486,17 +1487,17 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D34">
         <f>IF(ISNA(VLOOKUP(A34,danger[],1,FALSE)),0,IF(VLOOKUP(A34,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,brenda[],1,FALSE)),0,IF(VLOOKUP(A34,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,madora[],1,FALSE)),0,IF(VLOOKUP(A34,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A34,jehan[],1,FALSE)),0,IF(VLOOKUP(A34,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1786,17 +1787,17 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54">
         <f>IF(ISNA(VLOOKUP(A54,danger[],1,FALSE)),0,IF(VLOOKUP(A54,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,brenda[],1,FALSE)),0,IF(VLOOKUP(A54,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,madora[],1,FALSE)),0,IF(VLOOKUP(A54,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A54,jehan[],1,FALSE)),0,IF(VLOOKUP(A54,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1814,15 +1815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D56">
         <f>IF(ISNA(VLOOKUP(A56,danger[],1,FALSE)),0,IF(VLOOKUP(A56,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,brenda[],1,FALSE)),0,IF(VLOOKUP(A56,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,madora[],1,FALSE)),0,IF(VLOOKUP(A56,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,jehan[],1,FALSE)),0,IF(VLOOKUP(A56,jehan[],4,FALSE)="",1,0))</f>
@@ -1844,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -1906,13 +1907,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62">
         <f>IF(ISNA(VLOOKUP(A62,danger[],1,FALSE)),0,IF(VLOOKUP(A62,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,brenda[],1,FALSE)),0,IF(VLOOKUP(A62,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,madora[],1,FALSE)),0,IF(VLOOKUP(A62,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A62,jehan[],1,FALSE)),0,IF(VLOOKUP(A62,jehan[],4,FALSE)="",1,0))</f>
@@ -1934,22 +1935,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D64">
         <f>IF(ISNA(VLOOKUP(A64,danger[],1,FALSE)),0,IF(VLOOKUP(A64,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,brenda[],1,FALSE)),0,IF(VLOOKUP(A64,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,madora[],1,FALSE)),0,IF(VLOOKUP(A64,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,jehan[],1,FALSE)),0,IF(VLOOKUP(A64,jehan[],4,FALSE)="",1,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1981,20 +1982,20 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67">
         <f>IF(ISNA(VLOOKUP(A67,danger[],1,FALSE)),0,IF(VLOOKUP(A67,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,brenda[],1,FALSE)),0,IF(VLOOKUP(A67,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,madora[],1,FALSE)),0,IF(VLOOKUP(A67,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,jehan[],1,FALSE)),0,IF(VLOOKUP(A67,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2086,32 +2087,32 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>136</v>
       </c>
       <c r="D74">
         <f>IF(ISNA(VLOOKUP(A74,danger[],1,FALSE)),0,IF(VLOOKUP(A74,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,brenda[],1,FALSE)),0,IF(VLOOKUP(A74,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,madora[],1,FALSE)),0,IF(VLOOKUP(A74,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,jehan[],1,FALSE)),0,IF(VLOOKUP(A74,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
         <v>137</v>
       </c>
       <c r="D75">
         <f>IF(ISNA(VLOOKUP(A75,danger[],1,FALSE)),0,IF(VLOOKUP(A75,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,brenda[],1,FALSE)),0,IF(VLOOKUP(A75,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,madora[],1,FALSE)),0,IF(VLOOKUP(A75,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,jehan[],1,FALSE)),0,IF(VLOOKUP(A75,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -2176,13 +2177,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D80">
         <f>IF(ISNA(VLOOKUP(A80,danger[],1,FALSE)),0,IF(VLOOKUP(A80,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,brenda[],1,FALSE)),0,IF(VLOOKUP(A80,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,madora[],1,FALSE)),0,IF(VLOOKUP(A80,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,jehan[],1,FALSE)),0,IF(VLOOKUP(A80,jehan[],4,FALSE)="",1,0))</f>
@@ -2206,13 +2207,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82">
         <f>IF(ISNA(VLOOKUP(A82,danger[],1,FALSE)),0,IF(VLOOKUP(A82,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,brenda[],1,FALSE)),0,IF(VLOOKUP(A82,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,madora[],1,FALSE)),0,IF(VLOOKUP(A82,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A82,jehan[],1,FALSE)),0,IF(VLOOKUP(A82,jehan[],4,FALSE)="",1,0))</f>
@@ -2414,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -2431,13 +2432,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D97">
         <f>IF(ISNA(VLOOKUP(A97,danger[],1,FALSE)),0,IF(VLOOKUP(A97,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,brenda[],1,FALSE)),0,IF(VLOOKUP(A97,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,madora[],1,FALSE)),0,IF(VLOOKUP(A97,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A97,jehan[],1,FALSE)),0,IF(VLOOKUP(A97,jehan[],4,FALSE)="",1,0))</f>
@@ -2491,17 +2492,17 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101">
         <f>IF(ISNA(VLOOKUP(A101,danger[],1,FALSE)),0,IF(VLOOKUP(A101,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,brenda[],1,FALSE)),0,IF(VLOOKUP(A101,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,madora[],1,FALSE)),0,IF(VLOOKUP(A101,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A101,jehan[],1,FALSE)),0,IF(VLOOKUP(A101,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2551,17 +2552,17 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D105">
         <f>IF(ISNA(VLOOKUP(A105,danger[],1,FALSE)),0,IF(VLOOKUP(A105,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,brenda[],1,FALSE)),0,IF(VLOOKUP(A105,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,madora[],1,FALSE)),0,IF(VLOOKUP(A105,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A105,jehan[],1,FALSE)),0,IF(VLOOKUP(A105,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2699,9 +2700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2711,7 +2712,7 @@
       </c>
       <c r="D115">
         <f>IF(ISNA(VLOOKUP(A115,danger[],1,FALSE)),0,IF(VLOOKUP(A115,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,brenda[],1,FALSE)),0,IF(VLOOKUP(A115,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,madora[],1,FALSE)),0,IF(VLOOKUP(A115,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A115,jehan[],1,FALSE)),0,IF(VLOOKUP(A115,jehan[],4,FALSE)="",1,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2761,13 +2762,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119">
         <f>IF(ISNA(VLOOKUP(A119,danger[],1,FALSE)),0,IF(VLOOKUP(A119,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,brenda[],1,FALSE)),0,IF(VLOOKUP(A119,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,madora[],1,FALSE)),0,IF(VLOOKUP(A119,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A119,jehan[],1,FALSE)),0,IF(VLOOKUP(A119,jehan[],4,FALSE)="",1,0))</f>
@@ -2791,13 +2792,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D121">
         <f>IF(ISNA(VLOOKUP(A121,danger[],1,FALSE)),0,IF(VLOOKUP(A121,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,brenda[],1,FALSE)),0,IF(VLOOKUP(A121,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,madora[],1,FALSE)),0,IF(VLOOKUP(A121,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A121,jehan[],1,FALSE)),0,IF(VLOOKUP(A121,jehan[],4,FALSE)="",1,0))</f>
@@ -2819,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -2836,13 +2837,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
@@ -2896,10 +2897,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>138</v>
@@ -3305,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747535EA-D559-445D-AB25-2CC66AABAC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E31A55-E2AE-49A1-92A2-0F06F17DD11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -665,11 +665,16 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
   <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hydrosophist"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
     <sortCondition ref="B1:B54"/>
   </sortState>
   <tableColumns count="4">
@@ -981,13 +986,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2097,7 +2103,7 @@
       </c>
       <c r="D74">
         <f>IF(ISNA(VLOOKUP(A74,danger[],1,FALSE)),0,IF(VLOOKUP(A74,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,brenda[],1,FALSE)),0,IF(VLOOKUP(A74,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,madora[],1,FALSE)),0,IF(VLOOKUP(A74,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,jehan[],1,FALSE)),0,IF(VLOOKUP(A74,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -4751,7 +4757,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4782,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4787,7 +4793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -5010,6 +5016,9 @@
       </c>
       <c r="C20" t="s">
         <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -5278,7 +5287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -5303,7 +5312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E31A55-E2AE-49A1-92A2-0F06F17DD11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2453961-171B-4C93-922F-31BF86C15896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="146">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -635,11 +635,6 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
   <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Witchcraft"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Adept"/>
@@ -987,7 +982,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:A115"/>
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2848,7 @@
       </c>
       <c r="D124">
         <f>IF(ISNA(VLOOKUP(A124,danger[],1,FALSE)),0,IF(VLOOKUP(A124,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,brenda[],1,FALSE)),0,IF(VLOOKUP(A124,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,madora[],1,FALSE)),0,IF(VLOOKUP(A124,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A124,jehan[],1,FALSE)),0,IF(VLOOKUP(A124,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2943,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84572864-7137-48EC-B786-EFC0E9E25BC3}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -4024,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4034,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4054,7 +4049,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4069,7 +4064,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4084,7 +4079,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4095,8 +4090,11 @@
         <v>137</v>
       </c>
       <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4108,7 +4106,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4120,7 +4118,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4133,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4150,7 +4148,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4165,7 +4163,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4180,7 +4178,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4195,7 +4193,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4207,7 +4205,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4222,7 +4220,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4237,7 +4235,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4252,7 +4250,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4339,7 +4337,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4531,7 +4529,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4717,7 +4715,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -4726,6 +4724,9 @@
       </c>
       <c r="C48" t="s">
         <v>137</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E48"/>
     </row>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2453961-171B-4C93-922F-31BF86C15896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15FF52-910D-4A34-8B55-8C8878F17B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D67">
         <f>IF(ISNA(VLOOKUP(A67,danger[],1,FALSE)),0,IF(VLOOKUP(A67,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,brenda[],1,FALSE)),0,IF(VLOOKUP(A67,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,madora[],1,FALSE)),0,IF(VLOOKUP(A67,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A67,jehan[],1,FALSE)),0,IF(VLOOKUP(A67,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3508,9 @@
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4019,10 +4021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,7 +4036,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4049,7 +4051,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4064,7 +4066,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4079,7 +4081,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4090,11 +4092,8 @@
         <v>137</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4106,7 +4105,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4118,7 +4117,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4133,7 +4132,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4148,7 +4147,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4163,7 +4162,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4178,7 +4177,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4193,7 +4192,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4205,7 +4204,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4220,7 +4219,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4235,7 +4234,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4250,7 +4249,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4757,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15FF52-910D-4A34-8B55-8C8878F17B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11978BD-DA4D-49E7-A58D-46389360335B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
     <sheet name="Madora" sheetId="12" r:id="rId2"/>
-    <sheet name="Danger" sheetId="11" r:id="rId3"/>
+    <sheet name="Brenda" sheetId="13" r:id="rId3"/>
     <sheet name="Jahan" sheetId="14" r:id="rId4"/>
-    <sheet name="Brenda" sheetId="13" r:id="rId5"/>
+    <sheet name="Danger" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
   <si>
     <t>Aerotheurge</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>all good</t>
+  </si>
+  <si>
+    <t>all good for now</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -608,13 +611,48 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
+  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition ref="B1:B54"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
+  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D43">
+    <sortCondition ref="C1:C49"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
+    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B117780D-6D57-4503-9B9D-ED0E84827234}" name="danger" displayName="danger" ref="A1:D47" totalsRowShown="0">
   <autoFilter ref="A1:D47" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -629,56 +667,6 @@
     <tableColumn id="4" xr3:uid="{8ED59A27-4F8A-4661-B0B9-115970921D5E}" name="Aquired"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{44107A0C-AA28-4F70-AACE-E75A731E07B8}" name="jehan" displayName="jehan" ref="A1:D49" totalsRowShown="0">
-  <autoFilter ref="A1:D49" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Adept"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D43">
-    <sortCondition ref="C1:C49"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{47EDCC02-B75A-407B-8A05-28A788EFC9ED}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{83EBBFE1-4555-40FB-8664-597513B088DC}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{65BCD695-EEF4-48E1-AD4F-3C39D3DF7D9D}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{ED235D28-68CC-4ACC-92B1-F3710A68AB1A}" name="Aquired" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{91EF0500-EACC-4F56-8167-B7EC3E2BB0C0}" name="brenda" displayName="brenda" ref="A1:D54" totalsRowShown="0">
-  <autoFilter ref="A1:D54" xr:uid="{BF9C7B15-02F1-4DC6-B7CC-0ADE24FA67EF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrosophist"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
-    <sortCondition ref="B1:B54"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{B11949AF-3913-4A95-9C94-44B0719BC4FE}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{1A3BFAB5-36FC-4F30-B7A3-03F5A0919928}" name="Type"/>
-    <tableColumn id="1" xr3:uid="{3A44FDF8-4F1B-4D5F-9E08-D44ABE2AB357}" name="Level"/>
-    <tableColumn id="4" xr3:uid="{1AA8B49A-7C41-4F64-AE35-87619F72E4DD}" name="Aquired" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -982,7 +970,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+      <selection activeCell="A82" sqref="A82:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1291,7 @@
       </c>
       <c r="D21">
         <f>IF(ISNA(VLOOKUP(A21,danger[],1,FALSE)),0,IF(VLOOKUP(A21,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,brenda[],1,FALSE)),0,IF(VLOOKUP(A21,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,madora[],1,FALSE)),0,IF(VLOOKUP(A21,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A21,jehan[],1,FALSE)),0,IF(VLOOKUP(A21,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1306,7 @@
       </c>
       <c r="D22">
         <f>IF(ISNA(VLOOKUP(A22,danger[],1,FALSE)),0,IF(VLOOKUP(A22,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,brenda[],1,FALSE)),0,IF(VLOOKUP(A22,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,madora[],1,FALSE)),0,IF(VLOOKUP(A22,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A22,jehan[],1,FALSE)),0,IF(VLOOKUP(A22,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1828,7 +1816,7 @@
       </c>
       <c r="D56">
         <f>IF(ISNA(VLOOKUP(A56,danger[],1,FALSE)),0,IF(VLOOKUP(A56,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,brenda[],1,FALSE)),0,IF(VLOOKUP(A56,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,madora[],1,FALSE)),0,IF(VLOOKUP(A56,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A56,jehan[],1,FALSE)),0,IF(VLOOKUP(A56,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1936,7 @@
       </c>
       <c r="D64">
         <f>IF(ISNA(VLOOKUP(A64,danger[],1,FALSE)),0,IF(VLOOKUP(A64,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,brenda[],1,FALSE)),0,IF(VLOOKUP(A64,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,madora[],1,FALSE)),0,IF(VLOOKUP(A64,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A64,jehan[],1,FALSE)),0,IF(VLOOKUP(A64,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2098,7 +2086,7 @@
       </c>
       <c r="D74">
         <f>IF(ISNA(VLOOKUP(A74,danger[],1,FALSE)),0,IF(VLOOKUP(A74,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,brenda[],1,FALSE)),0,IF(VLOOKUP(A74,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,madora[],1,FALSE)),0,IF(VLOOKUP(A74,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A74,jehan[],1,FALSE)),0,IF(VLOOKUP(A74,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,7 +2101,7 @@
       </c>
       <c r="D75">
         <f>IF(ISNA(VLOOKUP(A75,danger[],1,FALSE)),0,IF(VLOOKUP(A75,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,brenda[],1,FALSE)),0,IF(VLOOKUP(A75,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,madora[],1,FALSE)),0,IF(VLOOKUP(A75,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A75,jehan[],1,FALSE)),0,IF(VLOOKUP(A75,jehan[],4,FALSE)="",1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2176,7 @@
       </c>
       <c r="D80">
         <f>IF(ISNA(VLOOKUP(A80,danger[],1,FALSE)),0,IF(VLOOKUP(A80,danger[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,brenda[],1,FALSE)),0,IF(VLOOKUP(A80,brenda[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,madora[],1,FALSE)),0,IF(VLOOKUP(A80,madora[],4,FALSE)="",1,0))+IF(ISNA(VLOOKUP(A80,jehan[],1,FALSE)),0,IF(VLOOKUP(A80,jehan[],4,FALSE)="",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2939,7 +2927,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,7 +3235,7 @@
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3304,21 +3292,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3328,355 +3317,326 @@
       <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -3684,332 +3644,409 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
       <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47"/>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4021,7 +4058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30A7BAD-FC99-4FBA-873E-8BCD83368B7B}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -4036,7 +4073,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4051,7 +4088,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -4066,7 +4103,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4081,7 +4118,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4091,9 +4128,11 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -4105,7 +4144,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -4117,7 +4156,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4132,7 +4171,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4147,7 +4186,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4162,7 +4201,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4177,7 +4216,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4192,7 +4231,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4204,7 +4243,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4219,7 +4258,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4234,7 +4273,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4249,7 +4288,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4319,6 +4358,9 @@
       <c r="C20" t="s">
         <v>136</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4336,7 +4378,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -4345,6 +4387,9 @@
       </c>
       <c r="C22" t="s">
         <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E22"/>
     </row>
@@ -4540,7 +4585,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -4642,7 +4687,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -4753,22 +4798,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C3DB-7CBC-4CA7-B909-D18A220811DB}">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4778,308 +4822,357 @@
       <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -5087,409 +5180,332 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/divinity/Skills.xlsx
+++ b/divinity/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jturo\notes\divinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11978BD-DA4D-49E7-A58D-46389360335B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72777D-F9AF-42CC-A237-C2D470E2EA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22CF8C86-0986-46F7-901E-B0479304723F}"/>
   </bookViews>
   <sheets>
     <sheet name="All Skills" sheetId="3" r:id="rId1"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1CE82-3B7C-490C-8774-E0CAC5B9C9EC}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -4801,7 +4801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3251A-F89B-4FD0-9CE0-048C986F7283}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
